--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -286,7 +286,7 @@
     <t>Annual_Bonus_Policy,Local_market_Salary_Benchmark</t>
   </si>
   <si>
-    <t>Privacy Impact Assessment (PIA),Maintenance of Register of Processing Activities (RoPA),EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Corporate_Changes,Creation_or_update_of_Data_Deletion_and_Retention_concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_of_Large_2B_Transactions,General_Requests_to_Legal_Department,Mail_Intake_Process,RoPA_Reporting,User_Term_Changes</t>
+    <t>Privacy_Impact_Assessment_-_PIA,Maintenance of Register of Processing Activities (RoPA),EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Corporate_Changes,Creation_or_update_of_Data_Deletion_and_Retention_concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_of_Large_2B_Transactions,General_Requests_to_Legal_Department,Mail_Intake_Process,RoPA_Reporting,User_Term_Changes</t>
   </si>
   <si>
     <t>NIO_Life_return_order_process,NIO_Life_new_product_launch_process,NIO_Life_NH_NS_NSC_display_process,NIO_Life_Country_Artist_Selection,NIO_Life_Uniform_process,NIO_Life_Order_to_Delivery_Process,NIO_Life_product_pricing_definition,NIO_Life_Stock_Planning_SOP,NIO_Life_internal_usage_request,NIO_Life_product_selection_process</t>
@@ -367,10 +367,10 @@
     <t>Network_Development_Dashboard_Report_Standard,Location_Approval_Process,Network_Location_Planning,Location_Scouting_Process,Scouting_Vendor_Selection_and_management_process</t>
   </si>
   <si>
-    <t>EU_NH_design_and_approval_process,Design_vendor_pool_selection_process,EU_NIO_House_Space_Hub_design_guidline,,Budget approval and management process (including change mana),DOA_and_paymanet_process,Budget_making_and_rolling_process,Network_development_manager_selects_design_vendor</t>
-  </si>
-  <si>
-    <t>Construction management process (including managing vendors),Construction_vendor_pool_selection_and_management_process,NH_NS_Nhub_opening_preparation_standard,NH_NS_Nhub_operation_management,EU_POS_Infrastructure_projects_tracking_and_change_management</t>
+    <t>EU_NH_design_and_approval_process,Design_vendor_pool_selection_process,EU_NIO_House_Space_Hub_design_guidline,,Budget_approval_and_management_process_-including_change_mana,DOA_and_paymanet_process,Budget_making_and_rolling_process,Network_development_manager_selects_design_vendor</t>
+  </si>
+  <si>
+    <t>Construction_management_process_-including_managing_vendors,Construction_vendor_pool_selection_and_management_process,NH_NS_Nhub_opening_preparation_standard,NH_NS_Nhub_operation_management,EU_POS_Infrastructure_projects_tracking_and_change_management</t>
   </si>
   <si>
     <t>Daily_NH_Store_Closing_SOP,Daily_NH_Store_Opening_SOP,NIO_House_Purchase_Consumables,NIO_House_Reception_Process,Space_Reservation_Operation,NIO_House_vehicle_information_display_Standard,NIO_House_Property_Insurance_Process,NIO_House_parts_display_standard,NIO_House_NHS_shift_management</t>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="185">
   <si>
     <t>Capability</t>
   </si>
@@ -229,6 +229,21 @@
     <t>COE-Product_Marketing</t>
   </si>
   <si>
+    <t>EU_Service_Network</t>
+  </si>
+  <si>
+    <t>EU_service_partners_cooperation</t>
+  </si>
+  <si>
+    <t>EU_Service_Product</t>
+  </si>
+  <si>
+    <t>EU_Service_Resources</t>
+  </si>
+  <si>
+    <t>EU_Service_SOPBlue_Book</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -307,7 +322,7 @@
     <t>CJ_test_3,Power_Procurement,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_to_Delivery,Power_EU_Supply_Chain_Order_to_Delivery_-_PSS_Direct_to_Site,Power_EU_Supply_Chain_Order_to_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_to_Delivery_-_User_Orders_via_NIO_App,Power_EU_Supply_Chain_Order_to_Delivery_-_Free_Offer_with_car_pool,Power_EU_Supply_Chain_Order_to_Delivery_-_Batteries_Direct_to_Site,Power_Procurement_-_Standard_Process,Power_Procurement_-_Authorized_Process</t>
   </si>
   <si>
-    <t>CJ_test_2,Power EU PUS Leads to Operation (Q-300-B-1 EU PUS LTO ),Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Leads_Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Site_inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Project_approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Construction_Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Civil_Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning_-_Device_installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_PUS_Ready_for_Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Launch,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement,Power_EU_PUS_Leads_to_Operation_-_Power_EU_PUS_Step_by_Step,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process</t>
+    <t>CJ_test_2,Power_EU_PUS_Leads_to_Operation_Q-300-B-1_EU_PUS_LTO,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Leads_Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Site_inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Project_approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Construction_Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Civil_Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning_-_Device_installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_PUS_Ready_for_Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Launch,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement,Power_EU_PUS_Leads_to_Operation_-_Power_EU_PUS_Step_by_Step,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process</t>
   </si>
   <si>
     <t>FOTA_Launch_Preparation,FOTA_Operation,New_Model_Go_to_Market_Operation,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
@@ -319,7 +334,7 @@
     <t>Bug_Fix_Planning</t>
   </si>
   <si>
-    <t>Vendor_Selection_Process</t>
+    <t>Vendor_Selection_Process,NIO_Partner_Management_Process</t>
   </si>
   <si>
     <t>Standard_Purchase_Process,Emergency_Purchase_Process,Order_Negociation_Process,Contract_Review_Process,Contract_Management,Complete_Purchasing_process</t>
@@ -328,7 +343,7 @@
     <t>CJ_test_1</t>
   </si>
   <si>
-    <t>Financial_Offer_Product_Design,NIO_Partner_Management_Process</t>
+    <t>Financial_Offer_Product_Design</t>
   </si>
   <si>
     <t>Business_partner_buy_back_standard,Business_Partner_Selection_Process,Business_Partner_negociation_process</t>
@@ -343,7 +358,7 @@
     <t>Community_Partner_Development_2_0,Community_Referral_Program_Development</t>
   </si>
   <si>
-    <t>Gather Voice of Users Process (VOC)</t>
+    <t>Gather_Voice_of_Users_Process_-_VOC</t>
   </si>
   <si>
     <t>F2F_Event_Process</t>
@@ -385,7 +400,7 @@
     <t>Public_Conference_Organization,Public_Crisis_Management_Process,Plan_PR_related_Events,Publish_PR_PGC_&amp;_Press_Release</t>
   </si>
   <si>
-    <t>2B_Product_Development,2B_Client_Strategy,asdasdsad</t>
+    <t>2B_Product_Development,2B_Client_Strategy,asdasdsad,Fleet_and_Business_Direct_Sales_-_With_Partner,Fleet_and_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval_Process,Fleet_and_Business_Weekly_Governance_and_Reporting</t>
   </si>
   <si>
     <t>User_experiences_2D_testdrive_coupon,User_orders_Purchase_car,User_Change_of_Ownership,User_Request_Leasing,User_Request_Subscription_cancelation,User_asks_about_car_or_price_or_model_etc_,User_gets_normal_delivery,User_mutually_follows_a_NIO_employee_on_NIO_app,User_orders_Leasing_car,User_orders_Subscription_car,User_orders_something_from_NIO_cafe,User_pays_the_final_payment,User_performs_a_FOTA_upgrade,User_returns_a_leasing_car,User_returns_a_subscription_car,User_subscribes_NIO_newletter,User_wants_to_book_testdrive_online,User_wants_to_cancel_or_modify_NIO_Life_order,Receive_subscription_order_from_user,Deliver_subscription_cars,Subscription_cars_delivery-related,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,User_returns_a_Purchase_car,User_experiences_normal_testdrive,Fellow_complete_testdrive_process,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_manually_books_testdrive_for_user,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,Employee_process_new_purchase_oder,User_Purchase_car_after_delivery,Leads_classification_and_follow_up_process_management,Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Test_drive_site_selection_layout_and_process_design_,Group_Test_Drive_Process_-_Standardize_the_group_test_drive_process,Fellow_Performance_Evaluation_Process,Order_and_stock_planning_and_management_Process,Demo_car_and_display_car_management,Appointment-to-delivery_process,Power_Swap_call_center_handles_user_call,Location_scouting_for_power_swap_station,Fellow_handles_a_Testdrive_Process,Fellow_test_drive_follow_up_sop</t>
@@ -403,13 +418,13 @@
     <t>partner_Strategy_development_process</t>
   </si>
   <si>
-    <t>Agent_Performance_Review,SCR_-_SOP_-_Activate_Home_Charger,SCR_-_SOP_-_Answers_Debug,SCR_-_SOP_-_Buy_a_car,SCR_-_SOP_-_Cancel_Testdrive,SCR_-_SOP_-_Handles_Low_Star,SCR_-_SOP_-_Rebook_Testdrive,SCR_-_SOP_-_Test_Drive_Request,SCR_-_SOP_-_User_Account_Deletion,SCR_-_SOP_-_Validate_UGC,SCR_Complaint_Handling,SCR_FAQ_Update,SCR_Onboarding_Training,SCR_Shift_Management,SCR_Vendor_Payment,SCR_Wiki_Management,User_asks_SCR_due_to_power_problem,User_contacts_SCR_to_delete_NIO_account,SCR_receives_One-click_service_booking_request_from_subscription_user,SCR_receives_One-click_service_cancel_request_from_subscription_user,NIO_SCR_receives_RSA_request,SCR_handles_One-click_service</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (SO),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (PE),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_App,User_Satisfaction_-_Service_Coordinator_-_SCR_Process_Template_Name,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_User_OM_Way_of_working</t>
   </si>
   <si>
     <t>Emergency_Handling_Process,Mysterious_AmbassadorOpen_Check_process_and_standard_,Small_loop-closing,Big_loop-closing,Establish_EU_user_complaint_escalation_and_response_mechanism_,Low_star_follow_Up_Process,Weekly_Satisfaction_Report_Standard</t>
   </si>
   <si>
-    <t>5_Year_Sales_Planning,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning - Roadmap to Target(Target Streeting),Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
+    <t>5_Year_Sales_Planning,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
   </si>
   <si>
     <t>5_Year_Production_Plannign</t>
@@ -418,7 +433,22 @@
     <t>Current_year_Fleet_Planning</t>
   </si>
   <si>
-    <t>Long_term_volume_planning,Competitor_definition,Pre_MP_and_launch_stock_ordering,Pricing,Option_offer,Product_briefing,GTM_cadence,GTM_milestone_adjustment,PMK_-_EU_OTA_Process</t>
+    <t>Long_term_volume_planning,Competitor_definition,Pre_MP_and_launch_stock_ordering,Pricing,Option_offer,Product_briefing,GTM_cadence,GTM_milestone_adjustment,OTA_Process</t>
+  </si>
+  <si>
+    <t>EU_Service_-_After_service_-_Service_Network,EU_Service_-_After_service_-_Service_Network_-_NSCHUB_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_ASCASC_Lite_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_Body_Repair_Shop_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_RDC_Planning_and_Operation_Preparation_Process</t>
+  </si>
+  <si>
+    <t>EU_Service_-_After_service_-_Service_Partners_Cooperation,EU_Service_-_After_service_-_Service_Partners_Cooperation_-_Service_Partners_Nomination_and_Cooperation_Process</t>
+  </si>
+  <si>
+    <t>EU_Service_-_After_service_-_Service_Product,EU_Service_-_After_service_-_Service_Product_-_Insurance_Product_Design_and_Operation_Process ,EU_Service_-_After_service_-_Service_Product_-_Innovative_Service_Product_Design_and_Operation_Process</t>
+  </si>
+  <si>
+    <t>EU_Service_-_After_service_-_Service_Resources,EU_Service_-_After_service_-_Service_Resources_-_Courtesy_Car_Policy_and_Operation_Process ,EU_Service_-_After_service_-_Service_Resources_-_Mobile_Service_Car_Policy_and_Operation_Process</t>
+  </si>
+  <si>
+    <t>EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_One_Click_Service_Operation_Process ,EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_Accident_Service_Operation_Process,EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_Process_-_RSA,EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_Process_-_ecall,EU_Service_-_After_service_-_Service_SOP_Blue_Book</t>
   </si>
   <si>
     <t>Digital_Development_PMO_Team</t>
@@ -896,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -930,19 +960,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -953,19 +983,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -976,19 +1006,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -999,19 +1029,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1022,19 +1052,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1045,19 +1075,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1068,19 +1098,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1091,19 +1121,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1114,19 +1144,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1137,16 +1167,16 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1157,19 +1187,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1180,19 +1210,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1203,19 +1233,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1226,19 +1256,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1249,19 +1279,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1272,19 +1302,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1295,16 +1325,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1315,13 +1345,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1332,16 +1362,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1352,16 +1382,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1372,19 +1402,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1395,19 +1425,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1418,19 +1448,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G24" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1441,19 +1471,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1464,19 +1494,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1487,19 +1517,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1510,19 +1540,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1533,19 +1563,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1556,19 +1586,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1579,19 +1609,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G31" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1602,19 +1632,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G32" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1622,7 +1652,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1633,19 +1663,19 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1656,19 +1686,19 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F35" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1679,16 +1709,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1699,19 +1729,19 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F37" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G37" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1722,19 +1752,19 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G38" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1745,16 +1775,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G39" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1765,16 +1795,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G40" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1785,16 +1815,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G41" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1805,16 +1835,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G42" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1825,16 +1855,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G43" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1845,19 +1875,19 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F44" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G44" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1868,19 +1898,19 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G45" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1891,19 +1921,19 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F46" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G46" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1914,19 +1944,19 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G47" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1937,19 +1967,19 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G48" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1960,16 +1990,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E49" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G49" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1980,19 +2010,19 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E50" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F50" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G50" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2003,19 +2033,19 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F51" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G51" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2026,19 +2056,19 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G52" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2049,19 +2079,19 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F53" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G53" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2072,19 +2102,19 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F54" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G54" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2095,19 +2125,19 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2118,19 +2148,19 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F56" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G56" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2141,16 +2171,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G57" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2161,19 +2191,19 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F58" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G58" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2184,19 +2214,19 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E59" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G59" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2207,19 +2237,19 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F60" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G60" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2230,16 +2260,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F61" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2250,16 +2280,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G62" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2270,16 +2300,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G63" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2290,16 +2320,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E64" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G64" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2310,16 +2340,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E65" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G65" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2330,16 +2360,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G66" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2350,10 +2380,80 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>71</v>
       </c>
-      <c r="E67" t="s">
-        <v>134</v>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="205">
   <si>
     <t>Capability</t>
   </si>
@@ -244,6 +244,36 @@
     <t>EU_Service_SOPBlue_Book</t>
   </si>
   <si>
+    <t>EU_FOTA_Operation</t>
+  </si>
+  <si>
+    <t>EU_Service_Spare_Parts_Planning_&amp;_Opeartion</t>
+  </si>
+  <si>
+    <t>EU_Service_Accessory_Planning_&amp;_Operation</t>
+  </si>
+  <si>
+    <t>EU_Emergency_Response</t>
+  </si>
+  <si>
+    <t>EU_Technical_Operation</t>
+  </si>
+  <si>
+    <t>EU_Service_Campaign</t>
+  </si>
+  <si>
+    <t>EU_Technical_Training</t>
+  </si>
+  <si>
+    <t>EU_Fleet_operation</t>
+  </si>
+  <si>
+    <t>EU_Quality</t>
+  </si>
+  <si>
+    <t>EU_Finance</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -253,64 +283,64 @@
     <t>Achieve_Satisfaction_Target</t>
   </si>
   <si>
-    <t>EU_Data_Security_Control_Policy,Colleague_Request_New_System_Feature,New_Feature_UI_Approval_Process,European_Feature_Scheduling_Process</t>
-  </si>
-  <si>
-    <t>ud_publishes_a_pgc</t>
-  </si>
-  <si>
-    <t>New_Feature_Release_Process</t>
-  </si>
-  <si>
-    <t>IT_Hardware_give_out_management,Colleague_Request_System_Access_Right</t>
-  </si>
-  <si>
-    <t>Country_Tax_consulting_process</t>
+    <t>EU_Data_SecURity_Control_Policy,Colleague_Request_New_System_FeatURe,New_FeatURe_Ui_Approval_Process,EURopean_FeatURe_Scheduling_Process</t>
+  </si>
+  <si>
+    <t>Ud_Publishes_A_Pgc</t>
+  </si>
+  <si>
+    <t>New_FeatURe_Release_Process</t>
+  </si>
+  <si>
+    <t>It_Hardware_Give_Out_Management,Colleague_Request_System_Access_Right</t>
+  </si>
+  <si>
+    <t>Country_Tax_Consulting_Process</t>
   </si>
   <si>
     <t>Monthly_NIO_Points_Balance_Control,EU_Accounting_Standard</t>
   </si>
   <si>
-    <t>EU_Reimbursement_Policy,EU_Travel_Policy,Country_Bank_Account_Opening,Emergency_Payment_Process,EB_quartlery_5_year_budget_planning_process</t>
-  </si>
-  <si>
-    <t>5_Year_Budget,Current_Year_Budget_Planning</t>
+    <t>EU_ReimbURsement_Policy,EU_Travel_Policy,Country_Bank_Account_Opening,Emergency_Payment_Process,Eb_Quartlery_5_Year_Budget_Planning_Process</t>
+  </si>
+  <si>
+    <t>5_Year_Budget,CURrent_Year_Budget_Planning</t>
   </si>
   <si>
     <t>Example_Finance_Controlling_Process</t>
   </si>
   <si>
-    <t>Create_Course_Materials,Training_Quality_Evaluation_Process,Event_market_product_Launch_preparation,Operate_Training_Sessions,Product_Launch_Training_Operation,Train_the_Trainer_Operation,Training_Handover_&amp;_Evaluation,eLearning_System_Management</t>
-  </si>
-  <si>
-    <t>Emergency_situation_dry_run,Purchasing_standard_for_consumable_products</t>
-  </si>
-  <si>
-    <t>NIO_Cultural_Workshop_Process,hr_test_process</t>
-  </si>
-  <si>
-    <t>EU_Company_Car_Policy,EU_RSU_Policy,Holiday_Policy,Recruiting_&amp;_Interview_Process,NCP_Policy,Sickness_Leave,Head_Count_Planning,Org_Change_Process</t>
-  </si>
-  <si>
-    <t>Example_learning_development_Process</t>
+    <t>Create_CoURse_Materials,Training_Quality_Evaluation_Process,Event_Market_Product_Launch_Preparation,Operate_Training_Sessions,Product_Launch_Training_Operation,Train_The_Trainer_Operation,Training_Handover_&amp;_Evaluation,Elearning_System_Management</t>
+  </si>
+  <si>
+    <t>Emergency_Situation_Dry_Run,PURchasing_Standard_For_Consumable_Products</t>
+  </si>
+  <si>
+    <t>NIO_CultURal_Workshop_Process,Hr_Test_Process</t>
+  </si>
+  <si>
+    <t>EU_Company_Car_Policy,EU_Rsu_Policy,Holiday_Policy,Recruiting_&amp;_Interview_Process,Ncp_Policy,Sickness_Leave,Head_Count_Planning,Org_Change_Process</t>
+  </si>
+  <si>
+    <t>Example_Learning_Development_Process</t>
   </si>
   <si>
     <t>Recruiting_Process,Onboarding_Process</t>
   </si>
   <si>
-    <t>Annual_Bonus_Policy,Local_market_Salary_Benchmark</t>
-  </si>
-  <si>
-    <t>Privacy_Impact_Assessment_-_PIA,Maintenance of Register of Processing Activities (RoPA),EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Corporate_Changes,Creation_or_update_of_Data_Deletion_and_Retention_concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_of_Large_2B_Transactions,General_Requests_to_Legal_Department,Mail_Intake_Process,RoPA_Reporting,User_Term_Changes</t>
-  </si>
-  <si>
-    <t>NIO_Life_return_order_process,NIO_Life_new_product_launch_process,NIO_Life_NH_NS_NSC_display_process,NIO_Life_Country_Artist_Selection,NIO_Life_Uniform_process,NIO_Life_Order_to_Delivery_Process,NIO_Life_product_pricing_definition,NIO_Life_Stock_Planning_SOP,NIO_Life_internal_usage_request,NIO_Life_product_selection_process</t>
-  </si>
-  <si>
-    <t>NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_export,NIO_Life_-_Export_-_Export_for_internal_applicatioin,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_store_opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_1900-190X_-_Internal_Application,NIO_Life_-_APP_sales,NIO_Life_-_APP_sales_-_Product_launch,NIO_Life_-_APP_sales_-_After_sales</t>
-  </si>
-  <si>
-    <t>Power_Swap_Operator_helps_user_complete_swap,Power_Swap_call_center_handles_user_call,Power_home_charger_activation_process,Power_related_low_star_follow_up_process,Power_Product_planning_process,Power_Charging_network_partner_Selection,Power_Charging_and_product_Pricing_Standard</t>
+    <t>Annual_Bonus_Policy,Local_Market_Salary_Benchmark</t>
+  </si>
+  <si>
+    <t>Privacy_Impact_Assessment_-_Pia,Maintenance Of Register Of Processing Activities (Ropa),EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,Ebe_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake_Process,Ropa_Reporting,User_Term_Changes</t>
+  </si>
+  <si>
+    <t>NIO_Life_RetURn_Order_Process,NIO_Life_New_Product_Launch_Process,NIO_Life_Nh_Ns_Nsc_Display_Process,NIO_Life_Country_Artist_Selection,NIO_Life_Uniform_Process,NIO_Life_Order_To_Delivery_Process,NIO_Life_Product_Pricing_Definition,NIO_Life_Stock_Planning_Sop,NIO_Life_Internal_Usage_Request,NIO_Life_Product_Selection_Process</t>
+  </si>
+  <si>
+    <t>NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_1900-190X_-_Internal_Application,NIO_Life_-_App_Sales,NIO_Life_-_App_Sales_-_Product_Launch,NIO_Life_-_App_Sales_-_After_Sales</t>
+  </si>
+  <si>
+    <t>Power_Swap_Operator_Helps_User_Complete_Swap,Power_Swap_Call_Center_Handles_User_Call,Power_Home_Charger_Activation_Process,Power_Related_Low_Star_Follow_Up_Process,Power_Product_Planning_Process,Power_Charging_Network_Partner_Selection,Power_Charging_And_Product_Pricing_Standard</t>
   </si>
   <si>
     <t>Example_Power_R&amp;M</t>
@@ -319,16 +349,16 @@
     <t>Example_Power_Battery_&amp;_Satefy</t>
   </si>
   <si>
-    <t>CJ_test_3,Power_Procurement,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_to_Delivery,Power_EU_Supply_Chain_Order_to_Delivery_-_PSS_Direct_to_Site,Power_EU_Supply_Chain_Order_to_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_to_Delivery_-_User_Orders_via_NIO_App,Power_EU_Supply_Chain_Order_to_Delivery_-_Free_Offer_with_car_pool,Power_EU_Supply_Chain_Order_to_Delivery_-_Batteries_Direct_to_Site,Power_Procurement_-_Standard_Process,Power_Procurement_-_Authorized_Process</t>
-  </si>
-  <si>
-    <t>CJ_test_2,Power_EU_PUS_Leads_to_Operation_Q-300-B-1_EU_PUS_LTO,Power_EU_PUS_Leads_to_Operation_-_EU_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_Country_Annual_Planning_and_Budget_Approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Leads_Collection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Site_inspection,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Quotation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Project_approval,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Leads_to_Contract_-_Contracting,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement - Partner Nomination (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Construction_Permit,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation - Grid Connection &amp; Upgrade (if applicable),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Civil_Construction,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning_-_Device_installation,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_PUS_Ready_for_Service,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Launch,Power_EU_PUS_Leads_to_Operation_-_LTO_Process_-_Contract_to_Operation_-_Announcement,Power_EU_PUS_Leads_to_Operation_-_Power_EU_PUS_Step_by_Step,Power_EU_PUS_Leads_to_Operation_-_PUS_Operation_Approval_Process</t>
-  </si>
-  <si>
-    <t>FOTA_Launch_Preparation,FOTA_Operation,New_Model_Go_to_Market_Operation,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
-  </si>
-  <si>
-    <t>User_Feedback_Management,User_Closed-Loop,SUD_Experience_Confirmation</t>
+    <t>Cj_Test_3,Power_ProcURement,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_ProcURement_-_Standard_Process,Power_ProcURement_-_Authorized_Process</t>
+  </si>
+  <si>
+    <t>Cj_Test_2,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_LTO,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_Process,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval_Process</t>
+  </si>
+  <si>
+    <t>Fota_Launch_Preparation,Fota_Operation,New_Model_Go_To_Market_Operation,Msrp_Pricing_Sop,User Behavior Tracking System (Ubts),Market_Intelligence_EURope</t>
+  </si>
+  <si>
+    <t>User_Feedback_Management,User_Closed-Loop,Sud_Experience_Confirmation</t>
   </si>
   <si>
     <t>Bug_Fix_Planning</t>
@@ -337,19 +367,19 @@
     <t>Vendor_Selection_Process,NIO_Partner_Management_Process</t>
   </si>
   <si>
-    <t>Standard_Purchase_Process,Emergency_Purchase_Process,Order_Negociation_Process,Contract_Review_Process,Contract_Management,Complete_Purchasing_process</t>
-  </si>
-  <si>
-    <t>CJ_test_1</t>
+    <t>Standard_PURchase_Process,Emergency_PURchase_Process,Order_Negociation_Process,Contract_Review_Process,Contract_Management,Complete_PURchasing_Process</t>
+  </si>
+  <si>
+    <t>Cj_Test_1</t>
   </si>
   <si>
     <t>Financial_Offer_Product_Design</t>
   </si>
   <si>
-    <t>Business_partner_buy_back_standard,Business_Partner_Selection_Process,Business_Partner_negociation_process</t>
-  </si>
-  <si>
-    <t>Manual_NIO_Points_Policy,Manually_Hand_out_NIO_Points_to_users</t>
+    <t>Business_Partner_Buy_Back_Standard,Business_Partner_Selection_Process,Business_Partner_Negociation_Process</t>
+  </si>
+  <si>
+    <t>Manual_NIO_Points_Policy,Manually_Hand_Out_NIO_Points_To_Users</t>
   </si>
   <si>
     <t>Community_Event_Operation,Community_Event_Planning</t>
@@ -358,124 +388,154 @@
     <t>Community_Partner_Development_2_0,Community_Referral_Program_Development</t>
   </si>
   <si>
-    <t>Gather_Voice_of_Users_Process_-_VOC</t>
+    <t>Gather_Voice_Of_Users_Process_-_Voc</t>
   </si>
   <si>
     <t>F2F_Event_Process</t>
   </si>
   <si>
-    <t>5_Year_Strategy_Planning_Presentation,5_Year_Sales_Volume_Calculation,Market_Entry_Cadence_Announcement_Standard,EU_Standardization_Project,Current_Market_Sales_Steering,5yr_planning_flow,Europe_Market_Planning,Europe_Market_Planning_-_5_yrs_planning,Europe_Market_Planning_-_5_yrs_planning_-_5_yrs_sales_volume_planning,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_future_portfolio_mapping,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_business_model,Europe_Market_Planning_-_5_yrs_planning_-_market_expansion_5_yrs_assumptions_-_market_entry_cadence_&amp;_infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_setup</t>
-  </si>
-  <si>
-    <t>5Y_Department_Budget_and_HC_Plan,EU_Office_location_Selection,Market_Launch,Monthly_Process_Review,SOP_Process_Broadcasting,Process_Change_Notification,SOP_Process_PMO_collection,Process_Survey_Evaluation,Wiki_Update,1Y_Department_Budget_and_HC_Plan,Market_Launch_PMO</t>
+    <t>5_Year_Strategy_Planning_Presentation,5_Year_Sales_Volume_Calculation,Market_Entry_Cadence_Announcement_Standard,EU_Standardization_Project,CURrent_Market_Sales_Steering,5Yr_Planning_Flow,EURope_Market_Planning,EURope_Market_Planning_-_5_Yrs_Planning,EURope_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_FutURe_Portfolio_Mapping,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_InfrastURcutre,EURope_Market_Planning_-_Wave2_Market_Entry_Pmo,EURope_Market_Planning_-_Governance_Pmo,EURope_Market_Planning_-_Governance_Pmo_-_Entity_Setup</t>
+  </si>
+  <si>
+    <t>5Y_Department_Budget_And_Hc_Plan,EU_Office_Location_Selection,Market_Launch,Monthly_Process_Review,Sop_Process_Broadcasting,Process_Change_Notification,Sop_Process_Pmo_Collection,Process_SURvey_Evaluation,Wiki_Update,1Y_Department_Budget_And_Hc_Plan,Market_Launch_Pmo</t>
   </si>
   <si>
     <t>Service_Campaign_Planning,Service_Network_Strategy_Planning,Service_Partner_Planning,Service_Capacity_Planning</t>
   </si>
   <si>
-    <t>Vehicle_manager_check_with_RDC_about_vehicle_receive_and_PDI_preparation_related_issues,Get_vehicles_from_CN_or_EU_hub_to_RDC,Inspection_Maintenance_Process,FOTA_and_remote_service_operation_process,Service_campaign_operation_management_process,Central_warehouse_parts_replenishment_order_process,Car_wash_Process,Vehicle_License_Registration_Process,User_service_booking_process,AccidentRoadside_assistance_process,Courtesy_car_management_process,User_Complain_Mechanism,Pre-delivery_service_operation_process,Service_Weekly_Progress_Dashboard,test14_process</t>
-  </si>
-  <si>
-    <t>Parts_and_accessories_stock_preparation_process,Parts_forecast_&amp;_planning,Parts_order_to_delivery_process,Accessory_order_to_delivery_process,Parts_return_process,Accessory_Return_Process</t>
-  </si>
-  <si>
-    <t>Network_Development_Dashboard_Report_Standard,Location_Approval_Process,Network_Location_Planning,Location_Scouting_Process,Scouting_Vendor_Selection_and_management_process</t>
-  </si>
-  <si>
-    <t>EU_NH_design_and_approval_process,Design_vendor_pool_selection_process,EU_NIO_House_Space_Hub_design_guidline,,Budget_approval_and_management_process_-including_change_mana,DOA_and_paymanet_process,Budget_making_and_rolling_process,Network_development_manager_selects_design_vendor</t>
-  </si>
-  <si>
-    <t>Construction_management_process_-including_managing_vendors,Construction_vendor_pool_selection_and_management_process,NH_NS_Nhub_opening_preparation_standard,NH_NS_Nhub_operation_management,EU_POS_Infrastructure_projects_tracking_and_change_management</t>
-  </si>
-  <si>
-    <t>Daily_NH_Store_Closing_SOP,Daily_NH_Store_Opening_SOP,NIO_House_Purchase_Consumables,NIO_House_Reception_Process,Space_Reservation_Operation,NIO_House_vehicle_information_display_Standard,NIO_House_Property_Insurance_Process,NIO_House_parts_display_standard,NIO_House_NHS_shift_management</t>
-  </si>
-  <si>
-    <t>NIO_House_Event_operation,Big_Event_planning,NIO_House_Event_planning,Big_Event_operation,Event_Location_Selection,Event_Vendor_Selection,Event_Communication,Event_preparation_&amp;_training</t>
-  </si>
-  <si>
-    <t>Create_EU_PR_Strategy,Operate_PR_relate_Events,PGC_drafting_standard,OGC_drafting_standard,Post_event_communication_requirement_2_2,</t>
-  </si>
-  <si>
-    <t>Public_Conference_Organization,Public_Crisis_Management_Process,Plan_PR_related_Events,Publish_PR_PGC_&amp;_Press_Release</t>
-  </si>
-  <si>
-    <t>2B_Product_Development,2B_Client_Strategy,asdasdsad,Fleet_and_Business_Direct_Sales_-_With_Partner,Fleet_and_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval_Process,Fleet_and_Business_Weekly_Governance_and_Reporting</t>
-  </si>
-  <si>
-    <t>User_experiences_2D_testdrive_coupon,User_orders_Purchase_car,User_Change_of_Ownership,User_Request_Leasing,User_Request_Subscription_cancelation,User_asks_about_car_or_price_or_model_etc_,User_gets_normal_delivery,User_mutually_follows_a_NIO_employee_on_NIO_app,User_orders_Leasing_car,User_orders_Subscription_car,User_orders_something_from_NIO_cafe,User_pays_the_final_payment,User_performs_a_FOTA_upgrade,User_returns_a_leasing_car,User_returns_a_subscription_car,User_subscribes_NIO_newletter,User_wants_to_book_testdrive_online,User_wants_to_cancel_or_modify_NIO_Life_order,Receive_subscription_order_from_user,Deliver_subscription_cars,Subscription_cars_delivery-related,Send_vehicle_preparation_order_to_RDC_and_the_registration_order_to_DAD,User_returns_a_Purchase_car,User_experiences_normal_testdrive,Fellow_complete_testdrive_process,Fellow_handles_a_testdrive_cancelation_or_change_request,Fellow_manually_books_testdrive_for_user,Fellow_testdrive_car_preparation,Fellow_follows_up_testdrive_leads,Fellow_fills_damage_form_together_with_users,Employee_process_new_purchase_oder,User_Purchase_car_after_delivery,Leads_classification_and_follow_up_process_management,Test_Drive_outbound_call_and_communication_Post-test_drive_follow-up_process,Test_drive_site_selection_layout_and_process_design_,Group_Test_Drive_Process_-_Standardize_the_group_test_drive_process,Fellow_Performance_Evaluation_Process,Order_and_stock_planning_and_management_Process,Demo_car_and_display_car_management,Appointment-to-delivery_process,Power_Swap_call_center_handles_user_call,Location_scouting_for_power_swap_station,Fellow_handles_a_Testdrive_Process,Fellow_test_drive_follow_up_sop</t>
-  </si>
-  <si>
-    <t>FIFO_steering_and_fleet_management,Fleet_Transport_Management,Fleet_planning_process,2B_system_development_process</t>
-  </si>
-  <si>
-    <t>Sales_Report_Generation_Standard,Intelligence_data_architecture_design_standard,Data_Cleanup_Process,Data_interface_Design_Process</t>
-  </si>
-  <si>
-    <t>Subscription_Product_Planning,Used_Car_Planning,Commercial_product_pricing,Market_Scan_&amp;_Analysis,RV_Management,Purchase_Product_planning,Financial_Leasing_product_planning,Create_a_new_promotion,Subscription_pricing_definition,Subscripiton_dynamic_pricing_&amp;_seasonal_discount,Ancillary_fees_management,Commercial_condition_for_special_deals,Commercial_condition_policies,Trade_Ins,RV_study_management</t>
-  </si>
-  <si>
-    <t>partner_Strategy_development_process</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (SO),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (PE),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_App,User_Satisfaction_-_Service_Coordinator_-_SCR_Process_Template_Name,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_User_OM_Way_of_working</t>
-  </si>
-  <si>
-    <t>Emergency_Handling_Process,Mysterious_AmbassadorOpen_Check_process_and_standard_,Small_loop-closing,Big_loop-closing,Establish_EU_user_complaint_escalation_and_response_mechanism_,Low_star_follow_Up_Process,Weekly_Satisfaction_Report_Standard</t>
-  </si>
-  <si>
-    <t>5_Year_Sales_Planning,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_offering_structure,Sales_Planning_-_Supply_Planning_-_planning_to_production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_stock_level_monitor_&amp;_stock_age_forecast_model,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_in-fleet_plan,Sales_Planning_-_Fleet_Planning_-_subscription_fleet_plan_&amp;_monitor_-_de-fleet_plan</t>
-  </si>
-  <si>
-    <t>5_Year_Production_Plannign</t>
-  </si>
-  <si>
-    <t>Current_year_Fleet_Planning</t>
-  </si>
-  <si>
-    <t>Long_term_volume_planning,Competitor_definition,Pre_MP_and_launch_stock_ordering,Pricing,Option_offer,Product_briefing,GTM_cadence,GTM_milestone_adjustment,OTA_Process</t>
-  </si>
-  <si>
-    <t>EU_Service_-_After_service_-_Service_Network,EU_Service_-_After_service_-_Service_Network_-_NSCHUB_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_ASCASC_Lite_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_Body_Repair_Shop_Planning_and_Operation_Preparation_Process,EU_Service_-_After_service_-_Service_Network_-_RDC_Planning_and_Operation_Preparation_Process</t>
-  </si>
-  <si>
-    <t>EU_Service_-_After_service_-_Service_Partners_Cooperation,EU_Service_-_After_service_-_Service_Partners_Cooperation_-_Service_Partners_Nomination_and_Cooperation_Process</t>
-  </si>
-  <si>
-    <t>EU_Service_-_After_service_-_Service_Product,EU_Service_-_After_service_-_Service_Product_-_Insurance_Product_Design_and_Operation_Process ,EU_Service_-_After_service_-_Service_Product_-_Innovative_Service_Product_Design_and_Operation_Process</t>
-  </si>
-  <si>
-    <t>EU_Service_-_After_service_-_Service_Resources,EU_Service_-_After_service_-_Service_Resources_-_Courtesy_Car_Policy_and_Operation_Process ,EU_Service_-_After_service_-_Service_Resources_-_Mobile_Service_Car_Policy_and_Operation_Process</t>
-  </si>
-  <si>
-    <t>EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_One_Click_Service_Operation_Process ,EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_Accident_Service_Operation_Process,EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_Process_-_RSA,EU_Service_-_After_service_-_Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_Process_-_ecall,EU_Service_-_After_service_-_Service_SOP_Blue_Book</t>
-  </si>
-  <si>
-    <t>Digital_Development_PMO_Team</t>
-  </si>
-  <si>
-    <t>Controlling_and_Planning_Department</t>
-  </si>
-  <si>
-    <t>Europe_Business_HRBP_Department</t>
-  </si>
-  <si>
-    <t>Legal_EU_Department</t>
-  </si>
-  <si>
-    <t>NIO_Life_Supply_Chain_Department</t>
-  </si>
-  <si>
-    <t>Power_market_launch_and_enabling_team</t>
-  </si>
-  <si>
-    <t>Product_Marketing_Department</t>
-  </si>
-  <si>
-    <t>Europe_Product_Experience_Department</t>
-  </si>
-  <si>
-    <t>Purchasing_Governance_and_BP_Team</t>
+    <t>Vehicle_Manager_Check_With_Rdc_About_Vehicle_Receive_And_Pdi_Preparation_Related_Issues,Get_Vehicles_From_Cn_Or_EU_Hub_To_Rdc,Inspection_Maintenance_Process,Fota_And_Remote_Service_Operation_Process,Service_Campaign_Operation_Management_Process,Central_Warehouse_Parts_Replenishment_Order_Process,Car_Wash_Process,Vehicle_License_Registration_Process,User_Service_Booking_Process,AccidentRoadside_Assistance_Process,CoURtesy_Car_Management_Process,User_Complain_Mechanism,Pre-Delivery_Service_Operation_Process,Service_Weekly_Progress_Dashboard,Test14_Process</t>
+  </si>
+  <si>
+    <t>Parts_And_Accessories_Stock_Preparation_Process,Parts_Forecast_&amp;_Planning,Parts_Order_To_Delivery_Process,Accessory_Order_To_Delivery_Process,Parts_RetURn_Process,Accessory_RetURn_Process</t>
+  </si>
+  <si>
+    <t>Network_Development_Dashboard_Report_Standard,Location_Approval_Process,Network_Location_Planning,Location_Scouting_Process,Scouting_Vendor_Selection_And_Management_Process</t>
+  </si>
+  <si>
+    <t>EU_Nh_Design_And_Approval_Process,Design_Vendor_Pool_Selection_Process,EU_NIO_House_Space_Hub_Design_Guidline,,Budget_Approval_And_Management_Process_-Including_Change_Mana,Doa_And_Paymanet_Process,Budget_Making_And_Rolling_Process,Network_Development_Manager_Selects_Design_Vendor</t>
+  </si>
+  <si>
+    <t>Construction_Management_Process_-Including_Managing_Vendors,Construction_Vendor_Pool_Selection_And_Management_Process,Nh_Ns_Nhub_Opening_Preparation_Standard,Nh_Ns_Nhub_Operation_Management,EU_Pos_InfrastructURe_Projects_Tracking_And_Change_Management</t>
+  </si>
+  <si>
+    <t>Daily_Nh_Store_Closing_Sop,Daily_Nh_Store_Opening_Sop,NIO_House_PURchase_Consumables,NIO_House_Reception_Process,Space_Reservation_Operation,NIO_House_Vehicle_Information_Display_Standard,NIO_House_Property_InsURance_Process,NIO_House_Parts_Display_Standard,NIO_House_Nhs_Shift_Management</t>
+  </si>
+  <si>
+    <t>NIO_House_Event_Operation,Big_Event_Planning,NIO_House_Event_Planning,Big_Event_Operation,Event_Location_Selection,Event_Vendor_Selection,Event_Communication,Event_Preparation_&amp;_Training</t>
+  </si>
+  <si>
+    <t>Create_EU_Pr_Strategy,Operate_Pr_Relate_Events,Pgc_Drafting_Standard,Ogc_Drafting_Standard,Post_Event_Communication_Requirement_2_2,</t>
+  </si>
+  <si>
+    <t>Public_Conference_Organization,Public_Crisis_Management_Process,Plan_Pr_Related_Events,Publish_Pr_Pgc_&amp;_Press_Release</t>
+  </si>
+  <si>
+    <t>2B_Product_Development,2B_Client_Strategy,Asdasdsad,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval_Process,Fleet_And_Business_Weekly_Governance_And_Reporting</t>
+  </si>
+  <si>
+    <t>User_Experiences_2D_Testdrive_Coupon,User_Orders_PURchase_Car,User_Change_Of_Ownership,User_Request_Leasing,User_Request_SubSCRiption_Cancelation,User_Asks_About_Car_Or_Price_Or_Model_Etc_,User_Gets_Normal_Delivery,User_Mutually_Follows_A_NIO_Employee_On_NIO_App,User_Orders_Leasing_Car,User_Orders_SubSCRiption_Car,User_Orders_Something_From_NIO_Cafe,User_Pays_The_Final_Payment,User_Performs_A_Fota_Upgrade,User_RetURns_A_Leasing_Car,User_RetURns_A_SubSCRiption_Car,User_SubSCRibes_NIO_Newletter,User_Wants_To_Book_Testdrive_Online,User_Wants_To_Cancel_Or_Modify_NIO_Life_Order,Receive_SubSCRiption_Order_From_User,Deliver_SubSCRiption_Cars,SubSCRiption_Cars_Delivery-Related,Send_Vehicle_Preparation_Order_To_Rdc_And_The_Registration_Order_To_Dad,User_RetURns_A_PURchase_Car,User_Experiences_Normal_Testdrive,Fellow_Complete_Testdrive_Process,Fellow_Handles_A_Testdrive_Cancelation_Or_Change_Request,Fellow_Manually_Books_Testdrive_For_User,Fellow_Testdrive_Car_Preparation,Fellow_Follows_Up_Testdrive_Leads,Fellow_Fills_Damage_Form_Together_With_Users,Employee_Process_New_PURchase_Oder,User_PURchase_Car_After_Delivery,Leads_Classification_And_Follow_Up_Process_Management,Test_Drive_Outbound_Call_And_Communication_Post-Test_Drive_Follow-Up_Process,Test_Drive_Site_Selection_Layout_And_Process_Design_,Group_Test_Drive_Process_-_Standardize_The_Group_Test_Drive_Process,Fellow_Performance_Evaluation_Process,Order_And_Stock_Planning_And_Management_Process,Demo_Car_And_Display_Car_Management,Appointment-To-Delivery_Process,Power_Swap_Call_Center_Handles_User_Call,Location_Scouting_For_Power_Swap_Station,Fellow_Handles_A_Testdrive_Process,Fellow_Test_Drive_Follow_Up_Sop</t>
+  </si>
+  <si>
+    <t>Fifo_Steering_And_Fleet_Management,Fleet_Transport_Management,Fleet_Planning_Process,2B_System_Development_Process</t>
+  </si>
+  <si>
+    <t>Sales_Report_Generation_Standard,Intelligence_Data_ArchitectURe_Design_Standard,Data_Cleanup_Process,Data_Interface_Design_Process</t>
+  </si>
+  <si>
+    <t>SubSCRiption_Product_Planning,Used_Car_Planning,Commercial_Product_Pricing,Market_Scan_&amp;_Analysis,Rv_Management,PURchase_Product_Planning,Financial_Leasing_Product_Planning,Create_A_New_Promotion,SubSCRiption_Pricing_Definition,SubSCRipiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees_Management,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_Ins,Rv_Study_Management</t>
+  </si>
+  <si>
+    <t>Partner_Strategy_Development_Process</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Sales (Uo),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO_App(In Progress),User Satisfaction - Service_Coordinator - SCR Process Template Name(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So) - RetURning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So) - Recycling Batteries And Cars (In Progress),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life_-_RetURn_NIO_Life_Products,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Deleting Charging &amp; Battery Swap Order,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Sota&amp;Fota Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
+  </si>
+  <si>
+    <t>Emergency_Handling_Process,Mysterious_AmbassadorOpen_Check_Process_And_Standard_,Small_Loop-Closing,Big_Loop-Closing,Establish_EU_User_Complaint_Escalation_And_Response_Mechanism_,Low_Star_Follow_Up_Process,Weekly_Satisfaction_Report_Standard</t>
+  </si>
+  <si>
+    <t>5_Year_Sales_Planning,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+  </si>
+  <si>
+    <t>5_Year_Production_Planning</t>
+  </si>
+  <si>
+    <t>CURrent_Year_Fleet_Planning</t>
+  </si>
+  <si>
+    <t>Long_Term_Volume_Planning,Competitor_Definition,Pre_Mp_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,Gtm_Cadence,Gtm_Milestone_Adjustment,OTA_Process</t>
+  </si>
+  <si>
+    <t>Service_Network,Service_Network_-_NscHub_Planning_And_Operation_Preparation_Process,Service_Network_-_AscAsc_Lite_Planning_And_Operation_Preparation_Process,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation_Process,Service_Network_-_RDC_Planning_And_Operation_Preparation_Process,After_Service</t>
+  </si>
+  <si>
+    <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation_Process</t>
+  </si>
+  <si>
+    <t>Service_Product,Service_Product_-_InsURance_Product_Design_And_Operation_Process,Service_Product_-_Innovative_Service_Product_Design_And_Operation_Process</t>
+  </si>
+  <si>
+    <t>Service_ResoURces,Service_ResoURces_-_CoURtesy_Car_Policy_And_Operation_Process,Service_ResoURces_-_Mobile_Service_Car_Policy_And_Operation_Process</t>
+  </si>
+  <si>
+    <t>Service_Sop_Blue_Book_-_One_Click_Service_Operation_Process,Service_Sop_Blue_Book_-_Accident_Service_Operation_Process,Service_Sop_Blue_Book_-_Roadside_Assistance_Operation_Process_-_Rsa,Service_Sop_Blue_Book_-_Roadside_Assistance_Operation_Process_-_Ecall,Service_Sop_Blue_Book</t>
+  </si>
+  <si>
+    <t>Fota_Operation,Fota_Operation_-_Fota_Release_Process,Fota_Operation_-_Operation_And_Close_Loop_Process</t>
+  </si>
+  <si>
+    <t>Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_SCRap_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation_Process,Spare_Parts_Planning_&amp;_Operation_-_Logistics_Management_Process_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_Management_Process_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness_Management,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order_Management</t>
+  </si>
+  <si>
+    <t>Accessory_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_ProcessLocal_SoURcingExport,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price</t>
+  </si>
+  <si>
+    <t>Emergency_Response,Emergency_Response_-_EU_Emergency_Response_Process</t>
+  </si>
+  <si>
+    <t>Technical_Operation,Technical_Operation_-_Warranty_Policy_Release_And_Operation_Process,Technical_Operation_-_Maintenance_Policy_Release_And_Operation_Process,Technical_Operation_-_User_ManualRescue_Card_Release_And_Operation_Process,Technical_Operation_-_FRT_Management_Process</t>
+  </si>
+  <si>
+    <t>Service_Campaign,Service_Campaign_-_Service_Campaign_Release_And_Operation_Management_Process</t>
+  </si>
+  <si>
+    <t>Technical_Training,Technical_Training_-_Technical_Training_Management_Process</t>
+  </si>
+  <si>
+    <t>Fleet_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_RetURn_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Using_Management,Fleet_Management</t>
+  </si>
+  <si>
+    <t>Quality,Quality_Issue_Management,EU_Quality_Issue_Management_Process</t>
+  </si>
+  <si>
+    <t>Financing,Settlement_Management,NSC_Settlement_Management_Process,ASC_Settlement_Management_Process,RDC_Settlement_Management_Process,Supplier_Settlement_Management_Process,Collection_Management_Process</t>
+  </si>
+  <si>
+    <t>Digital_Development_PMO</t>
+  </si>
+  <si>
+    <t>Controlling_and_Planning</t>
+  </si>
+  <si>
+    <t>Europe_Business_HRBP</t>
+  </si>
+  <si>
+    <t>Legal_EU</t>
+  </si>
+  <si>
+    <t>NIO_Life_Supply_Chain</t>
+  </si>
+  <si>
+    <t>Power_market_launch_and_enabling</t>
+  </si>
+  <si>
+    <t>PMK_-_Product_Marketing</t>
+  </si>
+  <si>
+    <t>Europe_Product_Experience</t>
+  </si>
+  <si>
+    <t>Purchasing_Governance_and_BP</t>
   </si>
   <si>
     <t>Business_Development</t>
@@ -926,7 +986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -960,19 +1020,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -983,19 +1043,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1006,19 +1066,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1029,19 +1089,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1052,19 +1112,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1075,19 +1135,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1098,19 +1158,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1121,19 +1181,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1144,19 +1204,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1167,16 +1227,16 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1187,19 +1247,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1210,19 +1270,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1233,19 +1293,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1256,19 +1316,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1279,19 +1339,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1302,19 +1362,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1325,16 +1385,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1345,13 +1405,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1362,16 +1422,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1382,16 +1442,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1402,19 +1462,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1425,19 +1485,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1448,19 +1508,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="G24" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1471,19 +1531,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1494,19 +1554,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1517,19 +1577,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1540,19 +1600,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G28" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1563,19 +1623,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G29" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1586,19 +1646,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1609,19 +1669,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1632,19 +1692,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1652,7 +1712,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1663,19 +1723,19 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1686,19 +1746,19 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G35" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1709,16 +1769,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G36" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1729,19 +1789,19 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G37" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1752,19 +1812,19 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G38" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1775,16 +1835,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G39" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1795,16 +1855,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G40" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1815,16 +1875,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G41" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1835,16 +1895,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G42" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1855,16 +1915,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G43" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1875,19 +1935,19 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F44" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1898,19 +1958,19 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1921,19 +1981,19 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="G46" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1944,19 +2004,19 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F47" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G47" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1967,19 +2027,19 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F48" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G48" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1990,16 +2050,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2010,19 +2070,19 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F50" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G50" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2033,19 +2093,19 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G51" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2056,19 +2116,19 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F52" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G52" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2079,19 +2139,19 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F53" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G53" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2102,19 +2162,19 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F54" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G54" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2125,19 +2185,19 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G55" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2148,19 +2208,19 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E56" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F56" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G56" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2171,16 +2231,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E57" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G57" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2191,19 +2251,19 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F58" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G58" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2214,19 +2274,19 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E59" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F59" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G59" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2237,19 +2297,19 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G60" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2260,16 +2320,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E61" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F61" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2280,16 +2340,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G62" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2300,16 +2360,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G63" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2320,16 +2380,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G64" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2340,16 +2400,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G65" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2360,16 +2420,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E66" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G66" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2380,10 +2440,10 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2394,10 +2454,10 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E68" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2408,10 +2468,10 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2422,10 +2482,10 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E70" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2436,10 +2496,10 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2450,10 +2510,158 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>76</v>
       </c>
-      <c r="E72" t="s">
-        <v>144</v>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -283,64 +283,64 @@
     <t>Achieve_Satisfaction_Target</t>
   </si>
   <si>
-    <t>EU_Data_SecURity_Control_Policy,Colleague_Request_New_System_FeatURe,New_FeatURe_Ui_Approval_Process,EURopean_FeatURe_Scheduling_Process</t>
-  </si>
-  <si>
-    <t>Ud_Publishes_A_Pgc</t>
-  </si>
-  <si>
-    <t>New_FeatURe_Release_Process</t>
+    <t>EU_Data_Security_Control_Policy,Colleague_Request_New_System_Feature,New_Feature_UI_Approval,European_Feature_Scheduling</t>
+  </si>
+  <si>
+    <t>Ud_Publishes_A_PGC</t>
+  </si>
+  <si>
+    <t>New_Feature_Release</t>
   </si>
   <si>
     <t>It_Hardware_Give_Out_Management,Colleague_Request_System_Access_Right</t>
   </si>
   <si>
-    <t>Country_Tax_Consulting_Process</t>
+    <t>Country_Tax_Consulting</t>
   </si>
   <si>
     <t>Monthly_NIO_Points_Balance_Control,EU_Accounting_Standard</t>
   </si>
   <si>
-    <t>EU_ReimbURsement_Policy,EU_Travel_Policy,Country_Bank_Account_Opening,Emergency_Payment_Process,Eb_Quartlery_5_Year_Budget_Planning_Process</t>
-  </si>
-  <si>
-    <t>5_Year_Budget,CURrent_Year_Budget_Planning</t>
-  </si>
-  <si>
-    <t>Example_Finance_Controlling_Process</t>
-  </si>
-  <si>
-    <t>Create_CoURse_Materials,Training_Quality_Evaluation_Process,Event_Market_Product_Launch_Preparation,Operate_Training_Sessions,Product_Launch_Training_Operation,Train_The_Trainer_Operation,Training_Handover_&amp;_Evaluation,Elearning_System_Management</t>
-  </si>
-  <si>
-    <t>Emergency_Situation_Dry_Run,PURchasing_Standard_For_Consumable_Products</t>
-  </si>
-  <si>
-    <t>NIO_CultURal_Workshop_Process,Hr_Test_Process</t>
-  </si>
-  <si>
-    <t>EU_Company_Car_Policy,EU_Rsu_Policy,Holiday_Policy,Recruiting_&amp;_Interview_Process,Ncp_Policy,Sickness_Leave,Head_Count_Planning,Org_Change_Process</t>
-  </si>
-  <si>
-    <t>Example_Learning_Development_Process</t>
-  </si>
-  <si>
-    <t>Recruiting_Process,Onboarding_Process</t>
+    <t>EU_Reimbursement_Policy,EU_Travel_Policy,Country_Bank_Account_Opening,Emergency_Payment,EB_Quartlery_5_Year_Budget_Planning</t>
+  </si>
+  <si>
+    <t>5_Year_Budget,Current_Year_Budget_Planning</t>
+  </si>
+  <si>
+    <t>Example_Finance_Controlling</t>
+  </si>
+  <si>
+    <t>Create_Course_Materials,Training_Quality_Evaluation,Event_Market_Product_Launch_Preparation,Operate_Training_Sessions,Product_Launch_Training_Operation,Train_The_Trainer_Operation,Training_Handover_&amp;_Evaluation,Elearning_System_Management</t>
+  </si>
+  <si>
+    <t>Emergency_Situation_Dry_Run,Purchasing_Standard_For_Consumable_Products</t>
+  </si>
+  <si>
+    <t>NIO_Cultural_Workshop,Hr_Test</t>
+  </si>
+  <si>
+    <t>EU_Company_Car_Policy,EU_RSU_Policy,Holiday_Policy,Recruiting_&amp;_Interview,NCP_Policy,Sickness_Leave,Head_Count_Planning,Org_Change</t>
+  </si>
+  <si>
+    <t>Example_Learning_Development</t>
+  </si>
+  <si>
+    <t>Recruiting,Onboarding</t>
   </si>
   <si>
     <t>Annual_Bonus_Policy,Local_Market_Salary_Benchmark</t>
   </si>
   <si>
-    <t>Privacy_Impact_Assessment_-_Pia,Maintenance Of Register Of Processing Activities (Ropa),EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,Ebe_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake_Process,Ropa_Reporting,User_Term_Changes</t>
-  </si>
-  <si>
-    <t>NIO_Life_RetURn_Order_Process,NIO_Life_New_Product_Launch_Process,NIO_Life_Nh_Ns_Nsc_Display_Process,NIO_Life_Country_Artist_Selection,NIO_Life_Uniform_Process,NIO_Life_Order_To_Delivery_Process,NIO_Life_Product_Pricing_Definition,NIO_Life_Stock_Planning_Sop,NIO_Life_Internal_Usage_Request,NIO_Life_Product_Selection_Process</t>
+    <t>Privacy_Impact_Assessment_-_Pia,Maintenance Of Register Ofing Activities (Ropa),EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake,ROPA_Reporting,User_Term_Changes</t>
+  </si>
+  <si>
+    <t>NIO_Life_Return_Order,NIO_Life_New_Product_Launch,NIO_Life_NH_NS_NSc_Display,NIO_Life_Country_Artist_Selection,NIO_Life_Uniform,NIO_Life_Order_To_Delivery,NIO_Life_Product_Pricing_Definition,NIO_Life_Stock_Planning_SOP,NIO_Life_Internal_Usage_Request,NIO_Life_Product_Selection</t>
   </si>
   <si>
     <t>NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_1900-190X_-_Internal_Application,NIO_Life_-_App_Sales,NIO_Life_-_App_Sales_-_Product_Launch,NIO_Life_-_App_Sales_-_After_Sales</t>
   </si>
   <si>
-    <t>Power_Swap_Operator_Helps_User_Complete_Swap,Power_Swap_Call_Center_Handles_User_Call,Power_Home_Charger_Activation_Process,Power_Related_Low_Star_Follow_Up_Process,Power_Product_Planning_Process,Power_Charging_Network_Partner_Selection,Power_Charging_And_Product_Pricing_Standard</t>
+    <t>Power_Swap_Operator_Helps_User_Complete_Swap,Power_Swap_Call_Center_Handles_User_Call,Power_Home_Charger_Activation,Power_Related_Low_Star_Follow_Up,Power_Product_Planning,Power_Charging_Network_Partner_Selection,Power_Charging_And_Product_Pricing_Standard</t>
   </si>
   <si>
     <t>Example_Power_R&amp;M</t>
@@ -349,25 +349,25 @@
     <t>Example_Power_Battery_&amp;_Satefy</t>
   </si>
   <si>
-    <t>Cj_Test_3,Power_ProcURement,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_ProcURement_-_Standard_Process,Power_ProcURement_-_Authorized_Process</t>
-  </si>
-  <si>
-    <t>Cj_Test_2,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_LTO,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_Process,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement_-_Kickoff,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_LTO_Process_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval_Process</t>
-  </si>
-  <si>
-    <t>Fota_Launch_Preparation,Fota_Operation,New_Model_Go_To_Market_Operation,Msrp_Pricing_Sop,User Behavior Tracking System (Ubts),Market_Intelligence_EURope</t>
-  </si>
-  <si>
-    <t>User_Feedback_Management,User_Closed-Loop,Sud_Experience_Confirmation</t>
+    <t>Cj_Test_3,Power_Procurement,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_Procurement_-_Standard,Power_Procurement_-_Authorized</t>
+  </si>
+  <si>
+    <t>Cj_Test_2,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+  </si>
+  <si>
+    <t>FOTA_Launch_Preparation,FOTA_Operation,New_Model_Go_To_Market_Operation,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
+  </si>
+  <si>
+    <t>User_Feedback,User_Closed-Loop,Sud_Experience_Confirmation</t>
   </si>
   <si>
     <t>Bug_Fix_Planning</t>
   </si>
   <si>
-    <t>Vendor_Selection_Process,NIO_Partner_Management_Process</t>
-  </si>
-  <si>
-    <t>Standard_PURchase_Process,Emergency_PURchase_Process,Order_Negociation_Process,Contract_Review_Process,Contract_Management,Complete_PURchasing_Process</t>
+    <t>Vendor_Selection,NIO_Partner_Management</t>
+  </si>
+  <si>
+    <t>Standard_Purchase,Emergency_Purchase,Order_Negociation,Contract_Review,Contract_Management,Complete_Purchasing</t>
   </si>
   <si>
     <t>Cj_Test_1</t>
@@ -376,7 +376,7 @@
     <t>Financial_Offer_Product_Design</t>
   </si>
   <si>
-    <t>Business_Partner_Buy_Back_Standard,Business_Partner_Selection_Process,Business_Partner_Negociation_Process</t>
+    <t>Business_Partner_Buy_Back_Standard,Business_Partner_Selection,Business_Partner_Negociation</t>
   </si>
   <si>
     <t>Manual_NIO_Points_Policy,Manually_Hand_Out_NIO_Points_To_Users</t>
@@ -388,127 +388,127 @@
     <t>Community_Partner_Development_2_0,Community_Referral_Program_Development</t>
   </si>
   <si>
-    <t>Gather_Voice_Of_Users_Process_-_Voc</t>
-  </si>
-  <si>
-    <t>F2F_Event_Process</t>
-  </si>
-  <si>
-    <t>5_Year_Strategy_Planning_Presentation,5_Year_Sales_Volume_Calculation,Market_Entry_Cadence_Announcement_Standard,EU_Standardization_Project,CURrent_Market_Sales_Steering,5Yr_Planning_Flow,EURope_Market_Planning,EURope_Market_Planning_-_5_Yrs_Planning,EURope_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_FutURe_Portfolio_Mapping,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,EURope_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_InfrastURcutre,EURope_Market_Planning_-_Wave2_Market_Entry_Pmo,EURope_Market_Planning_-_Governance_Pmo,EURope_Market_Planning_-_Governance_Pmo_-_Entity_Setup</t>
-  </si>
-  <si>
-    <t>5Y_Department_Budget_And_Hc_Plan,EU_Office_Location_Selection,Market_Launch,Monthly_Process_Review,Sop_Process_Broadcasting,Process_Change_Notification,Sop_Process_Pmo_Collection,Process_SURvey_Evaluation,Wiki_Update,1Y_Department_Budget_And_Hc_Plan,Market_Launch_Pmo</t>
+    <t>Gather_Voice_Of_Users_-_Voc</t>
+  </si>
+  <si>
+    <t>F2F_Event</t>
+  </si>
+  <si>
+    <t>5_Year_Strategy_Planning_Presentation,5_Year_Sales_Volume_Calculation,Market_Entry_Cadence_Announcement_Standard,EU_Standardization_Project,Current_Market_Sales_Steering,5Yr_Planning_Flow,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup</t>
+  </si>
+  <si>
+    <t>5Y_Department_Budget_And_Hc_Plan,EU_Office_Location_Selection,Market_Launch,Monthly_Review,SOP_Broadcasting,Process_Change_Notification,SOP_PMO_Collection,Process_Survey_Evaluation,Wiki_Update,1Y_Department_Budget_And_Hc_Plan,Market_Launch_PMO</t>
   </si>
   <si>
     <t>Service_Campaign_Planning,Service_Network_Strategy_Planning,Service_Partner_Planning,Service_Capacity_Planning</t>
   </si>
   <si>
-    <t>Vehicle_Manager_Check_With_Rdc_About_Vehicle_Receive_And_Pdi_Preparation_Related_Issues,Get_Vehicles_From_Cn_Or_EU_Hub_To_Rdc,Inspection_Maintenance_Process,Fota_And_Remote_Service_Operation_Process,Service_Campaign_Operation_Management_Process,Central_Warehouse_Parts_Replenishment_Order_Process,Car_Wash_Process,Vehicle_License_Registration_Process,User_Service_Booking_Process,AccidentRoadside_Assistance_Process,CoURtesy_Car_Management_Process,User_Complain_Mechanism,Pre-Delivery_Service_Operation_Process,Service_Weekly_Progress_Dashboard,Test14_Process</t>
-  </si>
-  <si>
-    <t>Parts_And_Accessories_Stock_Preparation_Process,Parts_Forecast_&amp;_Planning,Parts_Order_To_Delivery_Process,Accessory_Order_To_Delivery_Process,Parts_RetURn_Process,Accessory_RetURn_Process</t>
-  </si>
-  <si>
-    <t>Network_Development_Dashboard_Report_Standard,Location_Approval_Process,Network_Location_Planning,Location_Scouting_Process,Scouting_Vendor_Selection_And_Management_Process</t>
-  </si>
-  <si>
-    <t>EU_Nh_Design_And_Approval_Process,Design_Vendor_Pool_Selection_Process,EU_NIO_House_Space_Hub_Design_Guidline,,Budget_Approval_And_Management_Process_-Including_Change_Mana,Doa_And_Paymanet_Process,Budget_Making_And_Rolling_Process,Network_Development_Manager_Selects_Design_Vendor</t>
-  </si>
-  <si>
-    <t>Construction_Management_Process_-Including_Managing_Vendors,Construction_Vendor_Pool_Selection_And_Management_Process,Nh_Ns_Nhub_Opening_Preparation_Standard,Nh_Ns_Nhub_Operation_Management,EU_Pos_InfrastructURe_Projects_Tracking_And_Change_Management</t>
-  </si>
-  <si>
-    <t>Daily_Nh_Store_Closing_Sop,Daily_Nh_Store_Opening_Sop,NIO_House_PURchase_Consumables,NIO_House_Reception_Process,Space_Reservation_Operation,NIO_House_Vehicle_Information_Display_Standard,NIO_House_Property_InsURance_Process,NIO_House_Parts_Display_Standard,NIO_House_Nhs_Shift_Management</t>
+    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Inspection_Maintenance,FOTA_And_Remote_Service_Operation,Service_Campaign_Operation_Management,Central_Warehouse_Parts_Replenishment_Order,Car_Wash,Vehicle_License_Registration,User_Service_Booking,AccidentRoadside_Assistance,Courtesy_Car_Management,User_Complain_Mechanism,Pre-Delivery_Service_Operation,Service_Weekly_Progress_Dashboard,Test14</t>
+  </si>
+  <si>
+    <t>Parts_And_Accessories_Stock_Preparation,Parts_Forecast_&amp;_Planning,Parts_Order_To_Delivery,Accessory_Order_To_Delivery,Parts_Return,Accessory_Return</t>
+  </si>
+  <si>
+    <t>Network_Development_Dashboard_Report_Standard,Location_Approval,Network_Location_Planning,Location_Scouting,Scouting_Vendor_Selection_And_Management</t>
+  </si>
+  <si>
+    <t>EU_NH_Design_And_Approval,Design_Vendor_Pool_Selection,EU_NIO_House_Space_Hub_Design_Guidline,,Budget_Approval_And_Management_-_Including_Change,DOA_And_Paymanet,Budget_Making_And_Rolling,Network_Development_Manager_Selects_Design_Vendor</t>
+  </si>
+  <si>
+    <t>Construction_Management_-Including_Managing_Vendors,Construction_Vendor_Pool_Selection_And_Management,NH_NS_NHUB_Opening_Preparation_Standard,NH_NS_NHUB_Operation_Management,EU_POS_Infrastructure_Projects_Tracking_And_Change_Management</t>
+  </si>
+  <si>
+    <t>Daily_NH_Store_Closing_SOP,Daily_NH_Store_Opening_SOP,NIO_House_Purchase_Consumables,NIO_House_Reception,Space_Reservation_Operation,NIO_House_Vehicle_Information_Display_Standard,NIO_House_Property_Insurance,NIO_House_Parts_Display_Standard,NIO_House_NHS_Shift</t>
   </si>
   <si>
     <t>NIO_House_Event_Operation,Big_Event_Planning,NIO_House_Event_Planning,Big_Event_Operation,Event_Location_Selection,Event_Vendor_Selection,Event_Communication,Event_Preparation_&amp;_Training</t>
   </si>
   <si>
-    <t>Create_EU_Pr_Strategy,Operate_Pr_Relate_Events,Pgc_Drafting_Standard,Ogc_Drafting_Standard,Post_Event_Communication_Requirement_2_2,</t>
-  </si>
-  <si>
-    <t>Public_Conference_Organization,Public_Crisis_Management_Process,Plan_Pr_Related_Events,Publish_Pr_Pgc_&amp;_Press_Release</t>
-  </si>
-  <si>
-    <t>2B_Product_Development,2B_Client_Strategy,Asdasdsad,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval_Process,Fleet_And_Business_Weekly_Governance_And_Reporting</t>
-  </si>
-  <si>
-    <t>User_Experiences_2D_Testdrive_Coupon,User_Orders_PURchase_Car,User_Change_Of_Ownership,User_Request_Leasing,User_Request_SubSCRiption_Cancelation,User_Asks_About_Car_Or_Price_Or_Model_Etc_,User_Gets_Normal_Delivery,User_Mutually_Follows_A_NIO_Employee_On_NIO_App,User_Orders_Leasing_Car,User_Orders_SubSCRiption_Car,User_Orders_Something_From_NIO_Cafe,User_Pays_The_Final_Payment,User_Performs_A_Fota_Upgrade,User_RetURns_A_Leasing_Car,User_RetURns_A_SubSCRiption_Car,User_SubSCRibes_NIO_Newletter,User_Wants_To_Book_Testdrive_Online,User_Wants_To_Cancel_Or_Modify_NIO_Life_Order,Receive_SubSCRiption_Order_From_User,Deliver_SubSCRiption_Cars,SubSCRiption_Cars_Delivery-Related,Send_Vehicle_Preparation_Order_To_Rdc_And_The_Registration_Order_To_Dad,User_RetURns_A_PURchase_Car,User_Experiences_Normal_Testdrive,Fellow_Complete_Testdrive_Process,Fellow_Handles_A_Testdrive_Cancelation_Or_Change_Request,Fellow_Manually_Books_Testdrive_For_User,Fellow_Testdrive_Car_Preparation,Fellow_Follows_Up_Testdrive_Leads,Fellow_Fills_Damage_Form_Together_With_Users,Employee_Process_New_PURchase_Oder,User_PURchase_Car_After_Delivery,Leads_Classification_And_Follow_Up_Process_Management,Test_Drive_Outbound_Call_And_Communication_Post-Test_Drive_Follow-Up_Process,Test_Drive_Site_Selection_Layout_And_Process_Design_,Group_Test_Drive_Process_-_Standardize_The_Group_Test_Drive_Process,Fellow_Performance_Evaluation_Process,Order_And_Stock_Planning_And_Management_Process,Demo_Car_And_Display_Car_Management,Appointment-To-Delivery_Process,Power_Swap_Call_Center_Handles_User_Call,Location_Scouting_For_Power_Swap_Station,Fellow_Handles_A_Testdrive_Process,Fellow_Test_Drive_Follow_Up_Sop</t>
-  </si>
-  <si>
-    <t>Fifo_Steering_And_Fleet_Management,Fleet_Transport_Management,Fleet_Planning_Process,2B_System_Development_Process</t>
-  </si>
-  <si>
-    <t>Sales_Report_Generation_Standard,Intelligence_Data_ArchitectURe_Design_Standard,Data_Cleanup_Process,Data_Interface_Design_Process</t>
-  </si>
-  <si>
-    <t>SubSCRiption_Product_Planning,Used_Car_Planning,Commercial_Product_Pricing,Market_Scan_&amp;_Analysis,Rv_Management,PURchase_Product_Planning,Financial_Leasing_Product_Planning,Create_A_New_Promotion,SubSCRiption_Pricing_Definition,SubSCRipiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees_Management,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_Ins,Rv_Study_Management</t>
-  </si>
-  <si>
-    <t>Partner_Strategy_Development_Process</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Global_Processes,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Sales (Uo),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO_App(In Progress),User Satisfaction - Service_Coordinator - SCR Process Template Name(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So) - RetURning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Aftersales (So) - Recycling Batteries And Cars (In Progress),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life_-_RetURn_NIO_Life_Products,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Deleting Charging &amp; Battery Swap Order,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes - NIO Power (Pe) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Sota&amp;Fota Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Global_Processes_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
-  </si>
-  <si>
-    <t>Emergency_Handling_Process,Mysterious_AmbassadorOpen_Check_Process_And_Standard_,Small_Loop-Closing,Big_Loop-Closing,Establish_EU_User_Complaint_Escalation_And_Response_Mechanism_,Low_Star_Follow_Up_Process,Weekly_Satisfaction_Report_Standard</t>
-  </si>
-  <si>
-    <t>5_Year_Sales_Planning,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_StructURe,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_SubSCRiption_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+    <t>Create_EU_PR_Strategy,Operate_PR_Relate_Events,PGC_Drafting_Standard,Ogc_Drafting_Standard,Post_Event_Communication_Requirement_2_2,</t>
+  </si>
+  <si>
+    <t>Public_Conference_Organization,Public_Crisis_Management,Plan_PR_Related_Events,Publish_PR_PGC_&amp;_Press_Release</t>
+  </si>
+  <si>
+    <t>2B_Product_Development,2B_Client_Strategy,Asdasdsad,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Weekly_Governance_And_Reporting</t>
+  </si>
+  <si>
+    <t>User_Experiences_2D_Testdrive_Coupon,User_Orders_Purchase_Car,User_Change_Of_Ownership,User_Request_Leasing,User_Request_Subscription_Cancelation,User_Asks_About_Car_Or_Price_Or_Model_Etc_,User_Gets_Normal_Delivery,User_Mutually_Follows_A_NIO_Employee_On_NIO_App,User_Orders_Leasing_Car,User_Orders_Subscription_Car,User_Orders_Something_From_NIO_Cafe,User_Pays_The_Final_Payment,User_Performs_A_FOTA_Upgrade,User_Returns_A_Leasing_Car,User_Returns_A_Subscription_Car,User_Subscribes_NIO_Newletter,User_Wants_To_Book_Testdrive_Online,User_Wants_To_Cancel_Or_Modify_NIO_Life_Order,Receive_Subscription_Order_From_User,Deliver_Subscription_Cars,Subscription_Cars_Delivery-Related,Send_Vehicle_Preparation_Order_To_RDC_And_The_Registration_Order_To_Dad,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive_Cancelation_Or_Change_Request,Fellow_Manually_Books_Testdrive_For_User,Fellow_Testdrive_Car_Preparation,Fellow_Follows_Up_Testdrive_Leads,Fellow_Fills_Damage_Form_Together_With_Users,Employee_New_Purchase_Oder,User_Purchase_Car_After_Delivery,Leads_Classification_And_Follow_Up,Test_Drive_Outbound_Call_And_Communication_Post-Test_Drive_Follow-Up,Test_Drive_Site_Selection_Layout_And_Design_,Group_Test_Drive_-_Standardize_The_Group_Test_Drive,Fellow_Performance_Evaluation,Order_And_Stock_Planning_And_Management,Demo_Car_And_Display_Car_Management,Appointment-To-Delivery,Power_Swap_Call_Center_Handles_User_Call,Location_Scouting_For_Power_Swap_Station,Fellow_Handles_A_Testdrive,Fellow_Test_Drive_Follow_Up_SOP</t>
+  </si>
+  <si>
+    <t>FIFO_Steering_And_Fleet_Management,Fleet_Transport,Fleet_Planning,2B_System_Development</t>
+  </si>
+  <si>
+    <t>Sales_Report_Generation_Standard,Intelligence_Data_Architecture_Design_Standard,Data_Cleanup,Data_Interface_Design</t>
+  </si>
+  <si>
+    <t>Subscription_Product_Planning,Used_Car_Planning,Commercial_Product_Pricing,Market_Scan_&amp;_Analysis,RV_Management,Purchase_Product_Planning,Financial_Leasing_Product_Planning,Create_A_New_Promotion,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study</t>
+  </si>
+  <si>
+    <t>Partner_Strategy_Development</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - SCR Template Name(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Recycling Batteries And Cars (In Progress),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Deleting Charging &amp; Battery Swap Order,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
+  </si>
+  <si>
+    <t>Emergency_Handling,Mysterious_AmbassadorOpen_Check_And_Standard_,Small_Loop-Closing,Big_Loop-Closing,Establish_EU_User_Complaint_Escalation_And_Response_Mechanism_,Low_Star_Follow_Up,Weekly_Satisfaction_Report_Standard</t>
+  </si>
+  <si>
+    <t>5_Year_Sales_Planning,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
     <t>5_Year_Production_Planning</t>
   </si>
   <si>
-    <t>CURrent_Year_Fleet_Planning</t>
-  </si>
-  <si>
-    <t>Long_Term_Volume_Planning,Competitor_Definition,Pre_Mp_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,Gtm_Cadence,Gtm_Milestone_Adjustment,OTA_Process</t>
-  </si>
-  <si>
-    <t>Service_Network,Service_Network_-_NscHub_Planning_And_Operation_Preparation_Process,Service_Network_-_AscAsc_Lite_Planning_And_Operation_Preparation_Process,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation_Process,Service_Network_-_RDC_Planning_And_Operation_Preparation_Process,After_Service</t>
-  </si>
-  <si>
-    <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation_Process</t>
-  </si>
-  <si>
-    <t>Service_Product,Service_Product_-_InsURance_Product_Design_And_Operation_Process,Service_Product_-_Innovative_Service_Product_Design_And_Operation_Process</t>
-  </si>
-  <si>
-    <t>Service_ResoURces,Service_ResoURces_-_CoURtesy_Car_Policy_And_Operation_Process,Service_ResoURces_-_Mobile_Service_Car_Policy_And_Operation_Process</t>
-  </si>
-  <si>
-    <t>Service_Sop_Blue_Book_-_One_Click_Service_Operation_Process,Service_Sop_Blue_Book_-_Accident_Service_Operation_Process,Service_Sop_Blue_Book_-_Roadside_Assistance_Operation_Process_-_Rsa,Service_Sop_Blue_Book_-_Roadside_Assistance_Operation_Process_-_Ecall,Service_Sop_Blue_Book</t>
-  </si>
-  <si>
-    <t>Fota_Operation,Fota_Operation_-_Fota_Release_Process,Fota_Operation_-_Operation_And_Close_Loop_Process</t>
-  </si>
-  <si>
-    <t>Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_SCRap_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory_Management_Process,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation_Process,Spare_Parts_Planning_&amp;_Operation_-_Logistics_Management_Process_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_Management_Process_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness_Management,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order_Management</t>
-  </si>
-  <si>
-    <t>Accessory_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_ProcessLocal_SoURcingExport,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price</t>
-  </si>
-  <si>
-    <t>Emergency_Response,Emergency_Response_-_EU_Emergency_Response_Process</t>
-  </si>
-  <si>
-    <t>Technical_Operation,Technical_Operation_-_Warranty_Policy_Release_And_Operation_Process,Technical_Operation_-_Maintenance_Policy_Release_And_Operation_Process,Technical_Operation_-_User_ManualRescue_Card_Release_And_Operation_Process,Technical_Operation_-_FRT_Management_Process</t>
-  </si>
-  <si>
-    <t>Service_Campaign,Service_Campaign_-_Service_Campaign_Release_And_Operation_Management_Process</t>
-  </si>
-  <si>
-    <t>Technical_Training,Technical_Training_-_Technical_Training_Management_Process</t>
-  </si>
-  <si>
-    <t>Fleet_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_RetURn_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Using_Management,Fleet_Management</t>
-  </si>
-  <si>
-    <t>Quality,Quality_Issue_Management,EU_Quality_Issue_Management_Process</t>
-  </si>
-  <si>
-    <t>Financing,Settlement_Management,NSC_Settlement_Management_Process,ASC_Settlement_Management_Process,RDC_Settlement_Management_Process,Supplier_Settlement_Management_Process,Collection_Management_Process</t>
+    <t>Current_Year_Fleet_Planning</t>
+  </si>
+  <si>
+    <t>Long_Term_Volume_Planning,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA</t>
+  </si>
+  <si>
+    <t>Service_Network,Service_Network_-_NSCHub_Planning_And_Operation_Preparation,Service_Network_-_ASCASC_Lite_Planning_And_Operation_Preparation,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation,Service_Network_-_RDC_Planning_And_Operation_Preparation,After_Service</t>
+  </si>
+  <si>
+    <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
+  </si>
+  <si>
+    <t>Service_Product,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
+  </si>
+  <si>
+    <t>Service_Resources,Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_Resources_-_Mobile_Service_Car_Policy_And_Operation</t>
+  </si>
+  <si>
+    <t>Service_SOP_Blue_Book_-_One_Click_Service_Operation,Service_SOP_Blue_Book_-_Accident_Service_Operation,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_SOP_Blue_Book</t>
+  </si>
+  <si>
+    <t>FOTA_Operation,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop</t>
+  </si>
+  <si>
+    <t>Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventort,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order</t>
+  </si>
+  <si>
+    <t>Accessory_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price</t>
+  </si>
+  <si>
+    <t>Emergency_Response,Emergency_Response_-_EU_Emergency_Response</t>
+  </si>
+  <si>
+    <t>Technical_Operation,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_ManualRescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management</t>
+  </si>
+  <si>
+    <t>Service_Campaign,Service_Campaign_-_Service_Campaign_Release_And_Operation</t>
+  </si>
+  <si>
+    <t>Technical_Training,Technical_Training_-_Technical_Training_Management</t>
+  </si>
+  <si>
+    <t>Fleet_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Using,Fleet_Management</t>
+  </si>
+  <si>
+    <t>Quality,Quality_Issue_Management,EU_Quality_Issue_Management</t>
+  </si>
+  <si>
+    <t>Financing,Settlement_Management,NSC_Settlement_Management,ASC_Settlement_Management,RDC_Settlement_Management,Supplier_Settlement_Management,Collection_Management</t>
   </si>
   <si>
     <t>Digital_Development_PMO</t>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="162">
   <si>
     <t>Capability</t>
   </si>
@@ -274,6 +274,9 @@
     <t>EU_Finance</t>
   </si>
   <si>
+    <t>EU_Business_Development</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -283,184 +286,52 @@
     <t>Achieve_Satisfaction_Target</t>
   </si>
   <si>
-    <t>EU_Data_Security_Control_Policy,Colleague_Request_New_System_Feature,New_Feature_UI_Approval,European_Feature_Scheduling</t>
-  </si>
-  <si>
-    <t>Ud_Publishes_A_PGC</t>
-  </si>
-  <si>
-    <t>New_Feature_Release</t>
-  </si>
-  <si>
-    <t>It_Hardware_Give_Out_Management,Colleague_Request_System_Access_Right</t>
-  </si>
-  <si>
-    <t>Country_Tax_Consulting</t>
-  </si>
-  <si>
-    <t>Monthly_NIO_Points_Balance_Control,EU_Accounting_Standard</t>
-  </si>
-  <si>
-    <t>EU_Reimbursement_Policy,EU_Travel_Policy,Country_Bank_Account_Opening,Emergency_Payment,EB_Quartlery_5_Year_Budget_Planning</t>
-  </si>
-  <si>
-    <t>5_Year_Budget,Current_Year_Budget_Planning</t>
-  </si>
-  <si>
-    <t>Example_Finance_Controlling</t>
-  </si>
-  <si>
-    <t>Create_Course_Materials,Training_Quality_Evaluation,Event_Market_Product_Launch_Preparation,Operate_Training_Sessions,Product_Launch_Training_Operation,Train_The_Trainer_Operation,Training_Handover_&amp;_Evaluation,Elearning_System_Management</t>
-  </si>
-  <si>
-    <t>Emergency_Situation_Dry_Run,Purchasing_Standard_For_Consumable_Products</t>
-  </si>
-  <si>
-    <t>NIO_Cultural_Workshop,Hr_Test</t>
-  </si>
-  <si>
-    <t>EU_Company_Car_Policy,EU_RSU_Policy,Holiday_Policy,Recruiting_&amp;_Interview,NCP_Policy,Sickness_Leave,Head_Count_Planning,Org_Change</t>
-  </si>
-  <si>
-    <t>Example_Learning_Development</t>
-  </si>
-  <si>
-    <t>Recruiting,Onboarding</t>
-  </si>
-  <si>
-    <t>Annual_Bonus_Policy,Local_Market_Salary_Benchmark</t>
+    <t>EB_Quartlery_5_Year_Budget_Planning</t>
   </si>
   <si>
     <t>Privacy_Impact_Assessment_-_Pia,Maintenance Of Register Ofing Activities (Ropa),EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake,ROPA_Reporting,User_Term_Changes</t>
   </si>
   <si>
-    <t>NIO_Life_Return_Order,NIO_Life_New_Product_Launch,NIO_Life_NH_NS_NSc_Display,NIO_Life_Country_Artist_Selection,NIO_Life_Uniform,NIO_Life_Order_To_Delivery,NIO_Life_Product_Pricing_Definition,NIO_Life_Stock_Planning_SOP,NIO_Life_Internal_Usage_Request,NIO_Life_Product_Selection</t>
-  </si>
-  <si>
     <t>NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_1900-190X_-_Internal_Application,NIO_Life_-_App_Sales,NIO_Life_-_App_Sales_-_Product_Launch,NIO_Life_-_App_Sales_-_After_Sales</t>
   </si>
   <si>
-    <t>Power_Swap_Operator_Helps_User_Complete_Swap,Power_Swap_Call_Center_Handles_User_Call,Power_Home_Charger_Activation,Power_Related_Low_Star_Follow_Up,Power_Product_Planning,Power_Charging_Network_Partner_Selection,Power_Charging_And_Product_Pricing_Standard</t>
-  </si>
-  <si>
-    <t>Example_Power_R&amp;M</t>
-  </si>
-  <si>
-    <t>Example_Power_Battery_&amp;_Satefy</t>
-  </si>
-  <si>
-    <t>Cj_Test_3,Power_Procurement,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_Procurement_-_Standard,Power_Procurement_-_Authorized</t>
-  </si>
-  <si>
-    <t>Cj_Test_2,Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
-  </si>
-  <si>
-    <t>FOTA_Launch_Preparation,FOTA_Operation,New_Model_Go_To_Market_Operation,MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
-  </si>
-  <si>
-    <t>User_Feedback,User_Closed-Loop,Sud_Experience_Confirmation</t>
-  </si>
-  <si>
-    <t>Bug_Fix_Planning</t>
-  </si>
-  <si>
-    <t>Vendor_Selection,NIO_Partner_Management</t>
-  </si>
-  <si>
-    <t>Standard_Purchase,Emergency_Purchase,Order_Negociation,Contract_Review,Contract_Management,Complete_Purchasing</t>
-  </si>
-  <si>
-    <t>Cj_Test_1</t>
-  </si>
-  <si>
-    <t>Financial_Offer_Product_Design</t>
-  </si>
-  <si>
-    <t>Business_Partner_Buy_Back_Standard,Business_Partner_Selection,Business_Partner_Negociation</t>
-  </si>
-  <si>
-    <t>Manual_NIO_Points_Policy,Manually_Hand_Out_NIO_Points_To_Users</t>
-  </si>
-  <si>
-    <t>Community_Event_Operation,Community_Event_Planning</t>
-  </si>
-  <si>
-    <t>Community_Partner_Development_2_0,Community_Referral_Program_Development</t>
-  </si>
-  <si>
-    <t>Gather_Voice_Of_Users_-_Voc</t>
-  </si>
-  <si>
-    <t>F2F_Event</t>
-  </si>
-  <si>
-    <t>5_Year_Strategy_Planning_Presentation,5_Year_Sales_Volume_Calculation,Market_Entry_Cadence_Announcement_Standard,EU_Standardization_Project,Current_Market_Sales_Steering,5Yr_Planning_Flow,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup</t>
-  </si>
-  <si>
-    <t>5Y_Department_Budget_And_Hc_Plan,EU_Office_Location_Selection,Market_Launch,Monthly_Review,SOP_Broadcasting,Process_Change_Notification,SOP_PMO_Collection,Process_Survey_Evaluation,Wiki_Update,1Y_Department_Budget_And_Hc_Plan,Market_Launch_PMO</t>
-  </si>
-  <si>
-    <t>Service_Campaign_Planning,Service_Network_Strategy_Planning,Service_Partner_Planning,Service_Capacity_Planning</t>
-  </si>
-  <si>
-    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Inspection_Maintenance,FOTA_And_Remote_Service_Operation,Service_Campaign_Operation_Management,Central_Warehouse_Parts_Replenishment_Order,Car_Wash,Vehicle_License_Registration,User_Service_Booking,AccidentRoadside_Assistance,Courtesy_Car_Management,User_Complain_Mechanism,Pre-Delivery_Service_Operation,Service_Weekly_Progress_Dashboard,Test14</t>
-  </si>
-  <si>
-    <t>Parts_And_Accessories_Stock_Preparation,Parts_Forecast_&amp;_Planning,Parts_Order_To_Delivery,Accessory_Order_To_Delivery,Parts_Return,Accessory_Return</t>
-  </si>
-  <si>
-    <t>Network_Development_Dashboard_Report_Standard,Location_Approval,Network_Location_Planning,Location_Scouting,Scouting_Vendor_Selection_And_Management</t>
-  </si>
-  <si>
-    <t>EU_NH_Design_And_Approval,Design_Vendor_Pool_Selection,EU_NIO_House_Space_Hub_Design_Guidline,,Budget_Approval_And_Management_-_Including_Change,DOA_And_Paymanet,Budget_Making_And_Rolling,Network_Development_Manager_Selects_Design_Vendor</t>
-  </si>
-  <si>
-    <t>Construction_Management_-Including_Managing_Vendors,Construction_Vendor_Pool_Selection_And_Management,NH_NS_NHUB_Opening_Preparation_Standard,NH_NS_NHUB_Operation_Management,EU_POS_Infrastructure_Projects_Tracking_And_Change_Management</t>
-  </si>
-  <si>
-    <t>Daily_NH_Store_Closing_SOP,Daily_NH_Store_Opening_SOP,NIO_House_Purchase_Consumables,NIO_House_Reception,Space_Reservation_Operation,NIO_House_Vehicle_Information_Display_Standard,NIO_House_Property_Insurance,NIO_House_Parts_Display_Standard,NIO_House_NHS_Shift</t>
-  </si>
-  <si>
-    <t>NIO_House_Event_Operation,Big_Event_Planning,NIO_House_Event_Planning,Big_Event_Operation,Event_Location_Selection,Event_Vendor_Selection,Event_Communication,Event_Preparation_&amp;_Training</t>
-  </si>
-  <si>
-    <t>Create_EU_PR_Strategy,Operate_PR_Relate_Events,PGC_Drafting_Standard,Ogc_Drafting_Standard,Post_Event_Communication_Requirement_2_2,</t>
-  </si>
-  <si>
-    <t>Public_Conference_Organization,Public_Crisis_Management,Plan_PR_Related_Events,Publish_PR_PGC_&amp;_Press_Release</t>
-  </si>
-  <si>
-    <t>2B_Product_Development,2B_Client_Strategy,Asdasdsad,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Weekly_Governance_And_Reporting</t>
-  </si>
-  <si>
-    <t>User_Experiences_2D_Testdrive_Coupon,User_Orders_Purchase_Car,User_Change_Of_Ownership,User_Request_Leasing,User_Request_Subscription_Cancelation,User_Asks_About_Car_Or_Price_Or_Model_Etc_,User_Gets_Normal_Delivery,User_Mutually_Follows_A_NIO_Employee_On_NIO_App,User_Orders_Leasing_Car,User_Orders_Subscription_Car,User_Orders_Something_From_NIO_Cafe,User_Pays_The_Final_Payment,User_Performs_A_FOTA_Upgrade,User_Returns_A_Leasing_Car,User_Returns_A_Subscription_Car,User_Subscribes_NIO_Newletter,User_Wants_To_Book_Testdrive_Online,User_Wants_To_Cancel_Or_Modify_NIO_Life_Order,Receive_Subscription_Order_From_User,Deliver_Subscription_Cars,Subscription_Cars_Delivery-Related,Send_Vehicle_Preparation_Order_To_RDC_And_The_Registration_Order_To_Dad,User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive_Cancelation_Or_Change_Request,Fellow_Manually_Books_Testdrive_For_User,Fellow_Testdrive_Car_Preparation,Fellow_Follows_Up_Testdrive_Leads,Fellow_Fills_Damage_Form_Together_With_Users,Employee_New_Purchase_Oder,User_Purchase_Car_After_Delivery,Leads_Classification_And_Follow_Up,Test_Drive_Outbound_Call_And_Communication_Post-Test_Drive_Follow-Up,Test_Drive_Site_Selection_Layout_And_Design_,Group_Test_Drive_-_Standardize_The_Group_Test_Drive,Fellow_Performance_Evaluation,Order_And_Stock_Planning_And_Management,Demo_Car_And_Display_Car_Management,Appointment-To-Delivery,Power_Swap_Call_Center_Handles_User_Call,Location_Scouting_For_Power_Swap_Station,Fellow_Handles_A_Testdrive,Fellow_Test_Drive_Follow_Up_SOP</t>
-  </si>
-  <si>
-    <t>FIFO_Steering_And_Fleet_Management,Fleet_Transport,Fleet_Planning,2B_System_Development</t>
-  </si>
-  <si>
-    <t>Sales_Report_Generation_Standard,Intelligence_Data_Architecture_Design_Standard,Data_Cleanup,Data_Interface_Design</t>
-  </si>
-  <si>
-    <t>Subscription_Product_Planning,Used_Car_Planning,Commercial_Product_Pricing,Market_Scan_&amp;_Analysis,RV_Management,Purchase_Product_Planning,Financial_Leasing_Product_Planning,Create_A_New_Promotion,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study</t>
-  </si>
-  <si>
-    <t>Partner_Strategy_Development</t>
+    <t>Power_Procurement,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_Procurement_-_Standard,Power_Procurement_-_Authorized</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+  </si>
+  <si>
+    <t>MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
+  </si>
+  <si>
+    <t>User_Closed-Loop,Sud_Experience_Confirmation</t>
+  </si>
+  <si>
+    <t>Complete_Purchasing</t>
+  </si>
+  <si>
+    <t>5Yr_Planning_Flow,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup</t>
+  </si>
+  <si>
+    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc</t>
+  </si>
+  <si>
+    <t>Financing,Settlement_Management,NSC_Settlement_Management,ASC_Settlement_Management,RDC_Settlement_Management,Supplier_Settlement_Management,Collection_Management</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Weekly_Governance_And_Reporting</t>
+  </si>
+  <si>
+    <t>User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive</t>
+  </si>
+  <si>
+    <t>Create_A_New_Promotion,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study</t>
   </si>
   <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - SCR Template Name(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Recycling Batteries And Cars (In Progress),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Deleting Charging &amp; Battery Swap Order,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
   </si>
   <si>
-    <t>Emergency_Handling,Mysterious_AmbassadorOpen_Check_And_Standard_,Small_Loop-Closing,Big_Loop-Closing,Establish_EU_User_Complaint_Escalation_And_Response_Mechanism_,Low_Star_Follow_Up,Weekly_Satisfaction_Report_Standard</t>
-  </si>
-  <si>
-    <t>5_Year_Sales_Planning,Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>5_Year_Production_Planning</t>
-  </si>
-  <si>
-    <t>Current_Year_Fleet_Planning</t>
+    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
     <t>Long_Term_Volume_Planning,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA</t>
@@ -508,7 +379,7 @@
     <t>Quality,Quality_Issue_Management,EU_Quality_Issue_Management</t>
   </si>
   <si>
-    <t>Financing,Settlement_Management,NSC_Settlement_Management,ASC_Settlement_Management,RDC_Settlement_Management,Supplier_Settlement_Management,Collection_Management</t>
+    <t>EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
   </si>
   <si>
     <t>Digital_Development_PMO</t>
@@ -986,7 +857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1020,19 +891,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1043,19 +911,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1066,19 +931,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1089,19 +951,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1112,19 +971,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1135,19 +991,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1158,19 +1011,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1181,19 +1034,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1204,19 +1054,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1227,16 +1074,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1247,19 +1091,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1270,19 +1111,16 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1293,19 +1131,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1316,19 +1151,16 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1339,19 +1171,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1362,19 +1191,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1385,16 +1211,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1405,13 +1231,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1422,16 +1248,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1442,16 +1268,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1462,19 +1288,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="G22" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1485,19 +1311,16 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1508,19 +1331,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1531,19 +1354,16 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1554,19 +1374,16 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1577,19 +1394,16 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G27" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1600,19 +1414,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1623,19 +1437,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G29" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1646,19 +1460,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="G30" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1669,19 +1483,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="G31" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1692,19 +1506,16 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="G32" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1712,7 +1523,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1723,19 +1534,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="G34" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1746,19 +1554,19 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="G35" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1769,16 +1577,13 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1789,19 +1594,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="G37" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1812,19 +1614,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="G38" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1835,16 +1634,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1855,16 +1651,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1875,16 +1668,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1895,16 +1685,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1915,16 +1702,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1935,19 +1719,19 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="G44" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1958,19 +1742,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1981,19 +1762,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="G46" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2004,19 +1782,19 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="G47" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2027,19 +1805,19 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2050,16 +1828,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2070,19 +1845,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="G50" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2093,19 +1865,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G51" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2116,19 +1885,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="G52" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2139,19 +1905,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="G53" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2162,19 +1925,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="G54" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2185,19 +1945,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="G55" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2208,19 +1965,19 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="G56" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2231,16 +1988,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="G57" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2251,19 +2008,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="G58" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2274,19 +2028,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="G59" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2297,19 +2048,19 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="F60" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="G60" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2320,16 +2071,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2340,16 +2088,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="G62" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2360,16 +2108,13 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2380,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G64" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2400,16 +2145,13 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2420,16 +2162,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>87</v>
-      </c>
-      <c r="E66" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2440,10 +2179,10 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2454,10 +2193,10 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2468,10 +2207,10 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2482,10 +2221,10 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2496,10 +2235,10 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2510,10 +2249,10 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2524,10 +2263,10 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2538,10 +2277,10 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2552,10 +2291,10 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2566,10 +2305,10 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2580,10 +2319,10 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2594,10 +2333,10 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2608,10 +2347,10 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2619,7 +2358,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2630,10 +2369,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E81" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2644,10 +2383,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2658,10 +2397,21 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>86</v>
       </c>
-      <c r="E83" t="s">
-        <v>164</v>
+      <c r="C84" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -292,7 +292,7 @@
     <t>Privacy_Impact_Assessment_-_Pia,Maintenance Of Register Ofing Activities (Ropa),EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake,ROPA_Reporting,User_Term_Changes</t>
   </si>
   <si>
-    <t>NIO_Life_-_Export,NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,NIO_Life_-_1900-190X,NIO_Life_-_1900-190X_-_New_Store_Opening,NIO_Life_-_1900-190X_-_Replenishment,NIO_Life_-_1900-190X_-_Internal_Application,NIO_Life_-_App_Sales,NIO_Life_-_App_Sales_-_Product_Launch,NIO_Life_-_App_Sales_-_After_Sales</t>
+    <t>NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Internal_Application,NIO_Life_-_Offline_Display</t>
   </si>
   <si>
     <t>Power_Procurement,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_Procurement_-_Standard,Power_Procurement_-_Authorized</t>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="163">
   <si>
     <t>Capability</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>Quality,Quality_Issue_Management,EU_Quality_Issue_Management</t>
+  </si>
+  <si>
+    <t>Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses</t>
   </si>
   <si>
     <t>EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
@@ -897,10 +900,10 @@
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -917,10 +920,10 @@
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -937,10 +940,10 @@
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -957,10 +960,10 @@
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -977,10 +980,10 @@
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -997,10 +1000,10 @@
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1020,10 +1023,10 @@
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1040,10 +1043,10 @@
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1060,10 +1063,10 @@
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1080,7 +1083,7 @@
         <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1097,10 +1100,10 @@
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1117,10 +1120,10 @@
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1137,10 +1140,10 @@
         <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1157,10 +1160,10 @@
         <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1177,10 +1180,10 @@
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1197,10 +1200,10 @@
         <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1217,10 +1220,10 @@
         <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1237,7 +1240,7 @@
         <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1254,10 +1257,10 @@
         <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1274,10 +1277,10 @@
         <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1297,10 +1300,10 @@
         <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1317,10 +1320,10 @@
         <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1340,10 +1343,10 @@
         <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1360,10 +1363,10 @@
         <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1380,10 +1383,10 @@
         <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1400,10 +1403,10 @@
         <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1423,10 +1426,10 @@
         <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1446,10 +1449,10 @@
         <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1469,10 +1472,10 @@
         <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1492,10 +1495,10 @@
         <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1512,10 +1515,10 @@
         <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1540,10 +1543,10 @@
         <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1563,10 +1566,10 @@
         <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1583,7 +1586,7 @@
         <v>88</v>
       </c>
       <c r="G36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1600,10 +1603,10 @@
         <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1620,10 +1623,10 @@
         <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1640,7 +1643,7 @@
         <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1657,7 +1660,7 @@
         <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1674,7 +1677,7 @@
         <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1691,7 +1694,7 @@
         <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1708,7 +1711,7 @@
         <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1728,10 +1731,10 @@
         <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1748,10 +1751,10 @@
         <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1768,10 +1771,10 @@
         <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1791,10 +1794,10 @@
         <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1814,10 +1817,10 @@
         <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1834,7 +1837,7 @@
         <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1851,10 +1854,10 @@
         <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1871,10 +1874,10 @@
         <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1891,10 +1894,10 @@
         <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1911,10 +1914,10 @@
         <v>88</v>
       </c>
       <c r="F53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1931,10 +1934,10 @@
         <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1951,10 +1954,10 @@
         <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1974,10 +1977,10 @@
         <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1997,7 +2000,7 @@
         <v>102</v>
       </c>
       <c r="G57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2014,10 +2017,10 @@
         <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2034,10 +2037,10 @@
         <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2057,10 +2060,10 @@
         <v>103</v>
       </c>
       <c r="F60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2077,7 +2080,7 @@
         <v>88</v>
       </c>
       <c r="F61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2097,7 +2100,7 @@
         <v>104</v>
       </c>
       <c r="G62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2114,7 +2117,7 @@
         <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2134,7 +2137,7 @@
         <v>105</v>
       </c>
       <c r="G64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2151,7 +2154,7 @@
         <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2168,7 +2171,7 @@
         <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2399,6 +2402,9 @@
       <c r="C83" t="s">
         <v>87</v>
       </c>
+      <c r="E83" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
@@ -2411,7 +2417,7 @@
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="165">
   <si>
     <t>Capability</t>
   </si>
@@ -295,6 +295,9 @@
     <t>NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Internal_Application,NIO_Life_-_Offline_Display</t>
   </si>
   <si>
+    <t>Power_EU_Operation_-_VOC_War_Room</t>
+  </si>
+  <si>
     <t>Power_Procurement,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_Procurement_-_Standard,Power_Procurement_-_Authorized</t>
   </si>
   <si>
@@ -304,7 +307,7 @@
     <t>MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
   </si>
   <si>
-    <t>User_Closed-Loop,Sud_Experience_Confirmation</t>
+    <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation</t>
   </si>
   <si>
     <t>Complete_Purchasing</t>
@@ -328,6 +331,9 @@
     <t>Create_A_New_Promotion,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study</t>
   </si>
   <si>
+    <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution</t>
+  </si>
+  <si>
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - SCR Template Name(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Recycling Batteries And Cars (In Progress),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Deleting Charging &amp; Battery Swap Order,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
   </si>
   <si>
@@ -337,7 +343,7 @@
     <t>Long_Term_Volume_Planning,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA</t>
   </si>
   <si>
-    <t>Service_Network,Service_Network_-_NSCHub_Planning_And_Operation_Preparation,Service_Network_-_ASCASC_Lite_Planning_And_Operation_Preparation,Service_Network_-_Body_Repair_Shop_Planning_And_Operation_Preparation,Service_Network_-_RDC_Planning_And_Operation_Preparation,After_Service</t>
+    <t>Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning,After_Service</t>
   </si>
   <si>
     <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
@@ -382,7 +388,7 @@
     <t>Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses</t>
   </si>
   <si>
-    <t>EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
+    <t>EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
   </si>
   <si>
     <t>Digital_Development_PMO</t>
@@ -860,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -900,10 +906,10 @@
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -920,10 +926,10 @@
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -940,10 +946,10 @@
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -960,10 +966,10 @@
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -980,10 +986,10 @@
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1000,10 +1006,10 @@
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1023,10 +1029,10 @@
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1043,10 +1049,10 @@
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1063,10 +1069,10 @@
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1083,7 +1089,7 @@
         <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1100,10 +1106,10 @@
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1120,10 +1126,10 @@
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1140,10 +1146,10 @@
         <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1160,10 +1166,10 @@
         <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1180,10 +1186,10 @@
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1200,10 +1206,10 @@
         <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1220,10 +1226,10 @@
         <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1240,7 +1246,7 @@
         <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1257,10 +1263,10 @@
         <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1277,10 +1283,10 @@
         <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1300,10 +1306,10 @@
         <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1320,10 +1326,10 @@
         <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1343,10 +1349,10 @@
         <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1362,11 +1368,14 @@
       <c r="D25" t="s">
         <v>88</v>
       </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1383,10 +1392,10 @@
         <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1403,10 +1412,10 @@
         <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1423,13 +1432,13 @@
         <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1446,13 +1455,13 @@
         <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1469,13 +1478,13 @@
         <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1492,13 +1501,13 @@
         <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1515,10 +1524,10 @@
         <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1543,10 +1552,10 @@
         <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1563,13 +1572,13 @@
         <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1586,7 +1595,7 @@
         <v>88</v>
       </c>
       <c r="G36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1603,10 +1612,10 @@
         <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1623,10 +1632,10 @@
         <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1643,7 +1652,7 @@
         <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1660,7 +1669,7 @@
         <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1677,7 +1686,7 @@
         <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1694,7 +1703,7 @@
         <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1711,7 +1720,7 @@
         <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1728,13 +1737,13 @@
         <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1751,10 +1760,10 @@
         <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G45" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1771,10 +1780,10 @@
         <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1791,13 +1800,13 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1814,13 +1823,13 @@
         <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1837,7 +1846,7 @@
         <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1854,10 +1863,10 @@
         <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1874,10 +1883,10 @@
         <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1894,10 +1903,10 @@
         <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G52" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1914,10 +1923,10 @@
         <v>88</v>
       </c>
       <c r="F53" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1934,10 +1943,10 @@
         <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1954,10 +1963,10 @@
         <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1974,13 +1983,13 @@
         <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F56" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G56" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1997,10 +2006,10 @@
         <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G57" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2017,10 +2026,10 @@
         <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G58" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2037,10 +2046,10 @@
         <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G59" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2057,13 +2066,13 @@
         <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F60" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G60" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2079,8 +2088,11 @@
       <c r="D61" t="s">
         <v>88</v>
       </c>
+      <c r="E61" t="s">
+        <v>105</v>
+      </c>
       <c r="F61" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2097,10 +2109,10 @@
         <v>89</v>
       </c>
       <c r="E62" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G62" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2117,7 +2129,7 @@
         <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2134,10 +2146,10 @@
         <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G64" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2154,7 +2166,7 @@
         <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2171,7 +2183,7 @@
         <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2185,7 +2197,7 @@
         <v>87</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2199,7 +2211,7 @@
         <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2213,7 +2225,7 @@
         <v>87</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2227,7 +2239,7 @@
         <v>87</v>
       </c>
       <c r="E70" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2241,7 +2253,7 @@
         <v>87</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2255,7 +2267,7 @@
         <v>87</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2269,7 +2281,7 @@
         <v>87</v>
       </c>
       <c r="E73" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2283,7 +2295,7 @@
         <v>87</v>
       </c>
       <c r="E74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2297,7 +2309,7 @@
         <v>87</v>
       </c>
       <c r="E75" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2311,7 +2323,7 @@
         <v>87</v>
       </c>
       <c r="E76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2325,7 +2337,7 @@
         <v>87</v>
       </c>
       <c r="E77" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2339,7 +2351,7 @@
         <v>87</v>
       </c>
       <c r="E78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2353,7 +2365,7 @@
         <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2375,7 +2387,7 @@
         <v>87</v>
       </c>
       <c r="E81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2389,7 +2401,7 @@
         <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2403,7 +2415,7 @@
         <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2417,7 +2429,18 @@
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -355,13 +355,13 @@
     <t>Service_Resources,Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_Resources_-_Mobile_Service_Car_Policy_And_Operation</t>
   </si>
   <si>
-    <t>Service_SOP_Blue_Book_-_One_Click_Service_Operation,Service_SOP_Blue_Book_-_Accident_Service_Operation,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_SOP_Blue_Book</t>
+    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_SOP_-_Blue_Book</t>
   </si>
   <si>
     <t>FOTA_Operation,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop</t>
   </si>
   <si>
-    <t>Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventort,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order</t>
+    <t>Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventort,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management</t>
   </si>
   <si>
     <t>Accessory_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price</t>
@@ -370,7 +370,7 @@
     <t>Emergency_Response,Emergency_Response_-_EU_Emergency_Response</t>
   </si>
   <si>
-    <t>Technical_Operation,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_ManualRescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management</t>
+    <t>Technical_Operation,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management</t>
   </si>
   <si>
     <t>Service_Campaign,Service_Campaign_-_Service_Campaign_Release_And_Operation</t>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="169">
   <si>
     <t>Capability</t>
   </si>
@@ -277,6 +277,9 @@
     <t>EU_Business_Development</t>
   </si>
   <si>
+    <t>EB-Enabling-Europe_Business_Enabling</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -322,6 +325,9 @@
     <t>Financing,Settlement_Management,NSC_Settlement_Management,ASC_Settlement_Management,RDC_Settlement_Management,Supplier_Settlement_Management,Collection_Management</t>
   </si>
   <si>
+    <t>EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
+  </si>
+  <si>
     <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Weekly_Governance_And_Reporting</t>
   </si>
   <si>
@@ -337,6 +343,9 @@
     <t>User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - SCR Template Name(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Recycling Batteries And Cars (In Progress),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Deleting Charging &amp; Battery Swap Order,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
   </si>
   <si>
+    <t>User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_Low-Star_Follow_Up_SOP,User_Satisfaction_-_User_Relations_Management_-_Ucls,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_Users_Meet_Developers,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_User_Navigator,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_UAB,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_Community_Account,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_User_F2F,User_Satisfaction_-_User_Relations_Management_-_User_Response_-_Daily_Low_Star_Response,User_Satisfaction_-_User_Relations_Management_-_User_Response_-_User_Response_Library_UsageUpdate_SOP,User_Satisfaction_-_User_Relations_Management_-_Weekly_Report_-_EU_UR_Shared_Event_Calendar,User_Satisfaction_-_User_Relations_Management_-_Weekly_Report_-_NIO_App_User_Feedback,User_Satisfaction_-_User_Relations_Management,User_Satisfaction_-_User_Relations_Management_-_NIO_Points,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_NIO_Points_User_Manual,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_Scenarios_&amp;_Standards_&amp;_Referral_Rules,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_PointsCoupon_Instruction</t>
+  </si>
+  <si>
     <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
@@ -388,7 +397,10 @@
     <t>Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses</t>
   </si>
   <si>
-    <t>EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
+    <t>EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
+  </si>
+  <si>
+    <t>EB_-_Europe_Business_Enabling_-_Market_Entry</t>
   </si>
   <si>
     <t>Digital_Development_PMO</t>
@@ -866,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -900,16 +912,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -920,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -940,16 +952,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -960,16 +972,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -980,16 +992,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1000,16 +1012,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1020,19 +1032,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1043,16 +1055,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1063,16 +1075,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1083,13 +1095,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1100,16 +1112,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1120,16 +1132,16 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1140,16 +1152,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1160,16 +1172,16 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1180,16 +1192,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1200,16 +1212,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1220,16 +1232,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1240,13 +1252,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1257,16 +1269,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1277,16 +1289,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1297,19 +1309,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1320,16 +1332,16 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1340,19 +1352,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1363,19 +1375,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1386,16 +1398,16 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G26" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1406,16 +1418,16 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1426,19 +1438,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G28" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1449,19 +1461,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1472,19 +1484,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G30" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1495,19 +1507,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1518,16 +1530,16 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G32" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1535,7 +1547,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1546,16 +1558,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G34" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1566,19 +1578,19 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G35" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1589,13 +1601,13 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1606,16 +1618,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G37" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1626,16 +1638,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G38" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1646,13 +1658,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1663,13 +1675,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1680,13 +1692,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1697,13 +1709,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1714,13 +1726,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1731,19 +1743,19 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1754,16 +1766,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G45" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1774,16 +1786,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G46" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1794,19 +1806,19 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F47" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G47" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1817,19 +1829,19 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G48" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1840,13 +1852,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1857,16 +1869,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G50" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1877,16 +1889,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G51" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1897,16 +1909,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G52" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1917,16 +1929,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F53" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G53" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1937,16 +1949,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F54" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G54" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1957,16 +1969,19 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="E55" t="s">
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G55" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1977,19 +1992,19 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E56" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G56" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2000,16 +2015,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G57" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2020,16 +2035,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G58" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2040,16 +2055,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F59" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G59" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2060,19 +2075,19 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G60" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2083,16 +2098,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F61" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2103,16 +2118,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G62" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2123,13 +2138,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="E63" t="s">
+        <v>109</v>
       </c>
       <c r="G63" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2140,16 +2158,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G64" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2160,13 +2178,13 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2177,13 +2195,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2194,10 +2212,10 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2208,10 +2226,10 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2222,10 +2240,10 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E69" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2236,10 +2254,10 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E70" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2250,10 +2268,10 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2264,10 +2282,10 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E72" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2278,10 +2296,10 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E73" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2292,10 +2310,10 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E74" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2306,10 +2324,10 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E75" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2320,10 +2338,10 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E76" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2334,10 +2352,10 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E77" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2348,10 +2366,10 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E78" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2362,10 +2380,10 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E79" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2373,7 +2391,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2384,10 +2402,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E81" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2398,10 +2416,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E82" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2412,10 +2430,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2426,10 +2444,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2440,7 +2458,21 @@
         <v>64</v>
       </c>
       <c r="C85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
         <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="168">
   <si>
     <t>Capability</t>
   </si>
@@ -184,10 +184,7 @@
     <t>EB-ND-NIO_House_Operation</t>
   </si>
   <si>
-    <t>EB-UD-Events</t>
-  </si>
-  <si>
-    <t>EB-UD-Communication</t>
+    <t>EB-UD-Communication_&amp;_Event</t>
   </si>
   <si>
     <t>EB-UD-PR</t>
@@ -295,16 +292,16 @@
     <t>Privacy_Impact_Assessment_-_Pia,Maintenance Of Register Ofing Activities (Ropa),EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake,ROPA_Reporting,User_Term_Changes</t>
   </si>
   <si>
-    <t>NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Internal_Application,NIO_Life_-_Offline_Display</t>
+    <t>NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin</t>
   </si>
   <si>
     <t>Power_EU_Operation_-_VOC_War_Room</t>
   </si>
   <si>
-    <t>Power_Procurement,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_Procurement_-_Standard,Power_Procurement_-_Authorized</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
   </si>
   <si>
     <t>MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
@@ -313,25 +310,25 @@
     <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation</t>
   </si>
   <si>
-    <t>Complete_Purchasing</t>
-  </si>
-  <si>
-    <t>5Yr_Planning_Flow,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup</t>
-  </si>
-  <si>
-    <t>Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues,Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc</t>
+    <t>Complete_Purchasing_Process</t>
+  </si>
+  <si>
+    <t>Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,5Yr_Planning_Flow</t>
+  </si>
+  <si>
+    <t>Get_Vehicles_From_CN_Or_EU_Hub_To_Rdc,Vehicle_Manager_Check_With_RDC_About_Vehicle_Receive_And_PDI_Preparation_Related_Issues</t>
   </si>
   <si>
     <t>Financing,Settlement_Management,NSC_Settlement_Management,ASC_Settlement_Management,RDC_Settlement_Management,Supplier_Settlement_Management,Collection_Management</t>
   </si>
   <si>
-    <t>EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR&amp;CC_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
-  </si>
-  <si>
-    <t>Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Weekly_Governance_And_Reporting</t>
-  </si>
-  <si>
-    <t>User_Returns_A_Purchase_Car,User_Experiences_Normal_Testdrive,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive</t>
+    <t>EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
+  </si>
+  <si>
+    <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Weekly_Governance_And_Reporting</t>
+  </si>
+  <si>
+    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive</t>
   </si>
   <si>
     <t>Create_A_New_Promotion,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study</t>
@@ -340,64 +337,64 @@
     <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Sales (UO),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - SCR Template Name(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Aftersales (SO) - Recycling Batteries And Cars (In Progress),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Charging Map,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Deleting Charging &amp; Battery Swap Order,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Home Charger Activation,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales - NIO Power (PE) - Nfc Card Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Autonomous Drivinig(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Sota&amp;FOTA Update(Failed),User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
-  </si>
-  <si>
-    <t>User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_Low-Star_Follow_Up_SOP,User_Satisfaction_-_User_Relations_Management_-_Ucls,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_Users_Meet_Developers,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_User_Navigator,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_UAB,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_Community_Account,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_User_F2F,User_Satisfaction_-_User_Relations_Management_-_User_Response_-_Daily_Low_Star_Response,User_Satisfaction_-_User_Relations_Management_-_User_Response_-_User_Response_Library_UsageUpdate_SOP,User_Satisfaction_-_User_Relations_Management_-_Weekly_Report_-_EU_UR_Shared_Event_Calendar,User_Satisfaction_-_User_Relations_Management_-_Weekly_Report_-_NIO_App_User_Feedback,User_Satisfaction_-_User_Relations_Management,User_Satisfaction_-_User_Relations_Management_-_NIO_Points,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_NIO_Points_User_Manual,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_Scenarios_&amp;_Standards_&amp;_Referral_Rules,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_PointsCoupon_Instruction</t>
-  </si>
-  <si>
-    <t>Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO - Recycling Batteries And Cars (In Progress),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - SCR Template Name(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR</t>
+  </si>
+  <si>
+    <t>User_Satisfaction_-_User_Relations_Management,User_Satisfaction_-_User_Relations_Management_-_NIO_Points,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_NIO_Points_User_Manual,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_Scenarios_&amp;_Standards_&amp;_Referral_Rules,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_Low-Star_Follow_Up_SOP,User_Satisfaction_-_User_Relations_Management_-_Ucls,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_Users_Meet_Developers,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_User_Navigator,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_UAB,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_Community_Account,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_User_F2F,User_Satisfaction_-_User_Relations_Management_-_User_Response_-_Daily_Low_Star_Response,User_Satisfaction_-_User_Relations_Management_-_User_Response_-_User_Response_Library_Usage_SOP,User_Satisfaction_-_User_Relations_Management_-_Weekly_Report_-_EU_UR_Shared_Event_Calendar,User_Satisfaction_-_User_Relations_Management_-_Weekly_Report_-_NIO_App_User_Feedback</t>
+  </si>
+  <si>
+    <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
   </si>
   <si>
     <t>Long_Term_Volume_Planning,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA</t>
   </si>
   <si>
-    <t>Service_Network_-_NSC_and_Hub_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_RDC_Planning,After_Service</t>
+    <t>Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,After_Service</t>
   </si>
   <si>
     <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
   </si>
   <si>
-    <t>Service_Product,Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation</t>
-  </si>
-  <si>
-    <t>Service_Resources,Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_Resources_-_Mobile_Service_Car_Policy_And_Operation</t>
-  </si>
-  <si>
-    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_SOP_-_Blue_Book</t>
+    <t>Service_Product_-_Insurance_Product_Design_And_Operation,Service_Product_-_Innovative_Service_Product_Design_And_Operation,Service_Product</t>
+  </si>
+  <si>
+    <t>Service_Resources_-_Courtesy_Car_Policy_And_Operation,Service_Resources,Service_Resources_-_Mobile_Service_Car_Policy_And_Operation</t>
+  </si>
+  <si>
+    <t>Service_SOP_-_Blue_Book_-_One_Click_Service_Operation,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_RSA,Service_SOP_-_Blue_Book_-_Roadside_Assistance_Operation_-_Ecall,Service_SOP_-_Blue_Book_-_Accident_Service_Operation,Service_SOP_-_Blue_Book</t>
   </si>
   <si>
     <t>FOTA_Operation,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop</t>
   </si>
   <si>
-    <t>Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventort,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management</t>
-  </si>
-  <si>
-    <t>Accessory_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_OrderLocal_SourcingExport,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price</t>
+    <t>Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventort,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order</t>
+  </si>
+  <si>
+    <t>Accessory_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price</t>
   </si>
   <si>
     <t>Emergency_Response,Emergency_Response_-_EU_Emergency_Response</t>
   </si>
   <si>
-    <t>Technical_Operation,Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management</t>
-  </si>
-  <si>
-    <t>Service_Campaign,Service_Campaign_-_Service_Campaign_Release_And_Operation</t>
-  </si>
-  <si>
-    <t>Technical_Training,Technical_Training_-_Technical_Training_Management</t>
-  </si>
-  <si>
-    <t>Fleet_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Using,Fleet_Management</t>
+    <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management</t>
+  </si>
+  <si>
+    <t>Service_Campaign_-_Service_Campaign_Release_And_Operation,Service_Campaign</t>
+  </si>
+  <si>
+    <t>Technical_Training_-_Technical_Training_Management,Technical_Training</t>
+  </si>
+  <si>
+    <t>Fleet_Management,Fleet_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Using</t>
   </si>
   <si>
     <t>Quality,Quality_Issue_Management,EU_Quality_Issue_Management</t>
   </si>
   <si>
-    <t>Travel_and_Expense_Reimbursement,Cash_Advance,Petty_Cash_Purchasing,Marketing_Expenses</t>
-  </si>
-  <si>
-    <t>EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EB_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process,EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual</t>
+    <t>Marketing_Expenses,Cash_Advance,Petty_Cash_Purchasing,Travel_and_Expense_Reimbursement</t>
+  </si>
+  <si>
+    <t>EB_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Account_Management_on_Titan,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_Payment_and_Invoice_Process,EU_Business_Development_-_Business_Development_-_Leasing_Process_User_Journey_with_Systems_-_PTD_Order_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Quotation_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Order_&amp;_Deposit_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Vehicle_Registration_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Downpayment_Process,EU_Business_Development_-_Business_Development_-_Subscription_Lease-back_Manual_-_Monthly_Bill_Payment_Process</t>
   </si>
   <si>
     <t>EB_-_Europe_Business_Enabling_-_Market_Entry</t>
@@ -457,7 +454,7 @@
     <t>NIO_House_Operation</t>
   </si>
   <si>
-    <t>Event</t>
+    <t>Communication_and_PR,Event</t>
   </si>
   <si>
     <t>Communication_and_PR</t>
@@ -878,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -912,16 +909,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -932,16 +929,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -952,16 +949,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -972,16 +969,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -992,16 +989,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1012,16 +1009,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1032,19 +1029,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1055,16 +1052,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1075,16 +1072,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1095,13 +1092,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1112,16 +1109,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1132,16 +1129,16 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1152,16 +1149,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1172,16 +1169,16 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1192,16 +1189,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1212,16 +1209,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1232,16 +1229,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1252,13 +1249,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1269,16 +1266,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1289,16 +1286,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1309,19 +1306,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1332,16 +1329,16 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1352,19 +1349,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1375,19 +1372,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1398,16 +1395,16 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1418,16 +1415,16 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1438,19 +1435,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1461,19 +1458,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1484,19 +1481,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1507,19 +1504,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1530,16 +1527,16 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1547,7 +1544,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1558,16 +1555,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1578,19 +1575,19 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1601,13 +1598,13 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1618,16 +1615,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1638,16 +1635,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1658,13 +1655,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1675,13 +1672,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1692,13 +1689,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1709,13 +1706,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1726,13 +1723,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1743,19 +1740,19 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1766,16 +1763,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1786,16 +1783,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1806,19 +1803,19 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1829,19 +1826,19 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1852,13 +1849,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1869,16 +1866,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1889,16 +1886,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1909,16 +1906,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1929,16 +1926,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1949,16 +1946,19 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1969,10 +1969,10 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
         <v>103</v>
@@ -1992,19 +1992,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
         <v>104</v>
       </c>
-      <c r="F56" t="s">
-        <v>149</v>
-      </c>
       <c r="G56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2015,16 +2012,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57" t="s">
-        <v>105</v>
+        <v>88</v>
+      </c>
+      <c r="F57" t="s">
+        <v>149</v>
       </c>
       <c r="G57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2035,16 +2032,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s">
         <v>150</v>
       </c>
       <c r="G58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2055,16 +2052,19 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="E59" t="s">
+        <v>105</v>
       </c>
       <c r="F59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2075,19 +2075,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E60" t="s">
         <v>106</v>
       </c>
       <c r="F60" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2098,7 +2095,7 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D61" t="s">
         <v>89</v>
@@ -2106,8 +2103,8 @@
       <c r="E61" t="s">
         <v>107</v>
       </c>
-      <c r="F61" t="s">
-        <v>152</v>
+      <c r="G61" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2118,16 +2115,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E62" t="s">
         <v>108</v>
       </c>
       <c r="G62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2138,16 +2135,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
         <v>109</v>
       </c>
       <c r="G63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2158,16 +2155,13 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
-      </c>
-      <c r="E64" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2178,13 +2172,13 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2195,13 +2189,10 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" t="s">
-        <v>167</v>
+        <v>87</v>
+      </c>
+      <c r="E66" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2212,7 +2203,7 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E67" t="s">
         <v>111</v>
@@ -2226,7 +2217,7 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E68" t="s">
         <v>112</v>
@@ -2240,7 +2231,7 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E69" t="s">
         <v>113</v>
@@ -2254,7 +2245,7 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E70" t="s">
         <v>114</v>
@@ -2268,7 +2259,7 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E71" t="s">
         <v>115</v>
@@ -2282,7 +2273,7 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E72" t="s">
         <v>116</v>
@@ -2296,7 +2287,7 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
         <v>117</v>
@@ -2310,7 +2301,7 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
         <v>118</v>
@@ -2324,7 +2315,7 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E75" t="s">
         <v>119</v>
@@ -2338,7 +2329,7 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E76" t="s">
         <v>120</v>
@@ -2352,7 +2343,7 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E77" t="s">
         <v>121</v>
@@ -2366,7 +2357,7 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E78" t="s">
         <v>122</v>
@@ -2376,22 +2367,22 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>82</v>
-      </c>
       <c r="C79" t="s">
-        <v>88</v>
-      </c>
-      <c r="E79" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="E80" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2402,7 +2393,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E81" t="s">
         <v>124</v>
@@ -2416,7 +2407,7 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E82" t="s">
         <v>125</v>
@@ -2430,7 +2421,7 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E83" t="s">
         <v>126</v>
@@ -2444,35 +2435,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E84" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" t="s">
-        <v>88</v>
-      </c>
-      <c r="E86" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="172">
   <si>
     <t>Capability</t>
   </si>
@@ -34,6 +34,12 @@
     <t>Belongs to Topic</t>
   </si>
   <si>
+    <t>Defined by Department (1)</t>
+  </si>
+  <si>
+    <t>Belongs to Topic (1)</t>
+  </si>
+  <si>
     <t>COE-Digital-Digital_Product_Planning</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t>COE-PD-Vehicle_Quality</t>
   </si>
   <si>
+    <t>COE-PD-Product_Marketing</t>
+  </si>
+  <si>
     <t>COE-Purchase-Vendor_Management</t>
   </si>
   <si>
@@ -223,9 +232,6 @@
     <t>EB-UO-Fleet_Planning</t>
   </si>
   <si>
-    <t>COE-Product_Marketing</t>
-  </si>
-  <si>
     <t>EU_Service_Network</t>
   </si>
   <si>
@@ -310,6 +316,9 @@
     <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation</t>
   </si>
   <si>
+    <t>Long_Term_Volume_Planning,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA,COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU</t>
+  </si>
+  <si>
     <t>Complete_Purchasing_Process</t>
   </si>
   <si>
@@ -322,6 +331,9 @@
     <t>Financing,Settlement_Management,NSC_Settlement_Management,ASC_Settlement_Management,RDC_Settlement_Management,Supplier_Settlement_Management,Collection_Management</t>
   </si>
   <si>
+    <t>EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,EB_User_Development - Communication &amp; Events - Product go-to-market communication(in progress),EB_User_Development - Communication &amp; Events - NIO Summer (in progress)</t>
+  </si>
+  <si>
     <t>EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
   </si>
   <si>
@@ -349,7 +361,7 @@
     <t>Long_Term_Volume_Planning,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA</t>
   </si>
   <si>
-    <t>Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning,After_Service</t>
+    <t>Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning</t>
   </si>
   <si>
     <t>Service_Partners_Cooperation,Service_Partners_Cooperation_-_Service_Partners_Nomination_And_Cooperation</t>
@@ -367,19 +379,19 @@
     <t>FOTA_Operation,FOTA_Operation_-_FOTA_Release,FOTA_Operation_-_Operation_And_Close_Loop</t>
   </si>
   <si>
-    <t>Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventort,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order</t>
+    <t>Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order</t>
   </si>
   <si>
     <t>Accessory_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price</t>
   </si>
   <si>
-    <t>Emergency_Response,Emergency_Response_-_EU_Emergency_Response</t>
+    <t>Emergency_Response_-_EU_Emergency_Response</t>
   </si>
   <si>
     <t>Technical_Operation_-_Warranty_Policy_Release_And_Operation,Technical_Operation,Technical_Operation_-_Maintenance_Policy_Release_And_Operation,Technical_Operation_-_User_Manual_-_Rescue_Card_Release_And_Operation,Technical_Operation_-_FRT_Management</t>
   </si>
   <si>
-    <t>Service_Campaign_-_Service_Campaign_Release_And_Operation,Service_Campaign</t>
+    <t>Service_Campaign_-_Service_Campaign_Release_And_Operation</t>
   </si>
   <si>
     <t>Technical_Training_-_Technical_Training_Management,Technical_Training</t>
@@ -875,13 +887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,305 +912,311 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1206,19 +1224,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1226,19 +1244,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1246,16 +1264,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1263,19 +1281,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1283,19 +1301,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1303,22 +1321,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1344,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1346,22 +1364,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1369,22 +1387,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1392,19 +1410,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1412,19 +1430,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G27" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1432,22 +1450,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1455,22 +1473,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1478,22 +1496,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1501,22 +1519,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1524,27 +1542,36 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G32" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1552,19 +1579,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1572,22 +1599,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1595,16 +1622,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1612,19 +1639,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G37" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1632,19 +1659,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G38" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1652,16 +1679,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1669,16 +1696,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1686,16 +1713,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1703,16 +1730,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1720,16 +1747,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1737,22 +1764,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1760,19 +1787,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G45" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1780,19 +1807,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1800,22 +1827,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1823,22 +1850,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G48" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1846,16 +1873,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1863,19 +1890,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G50" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1883,19 +1910,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G51" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1903,19 +1930,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G52" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1923,19 +1950,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="E53" t="s">
+        <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G53" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1943,22 +1973,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G54" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1966,22 +1996,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G55" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1989,19 +2019,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G56" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2009,19 +2039,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G57" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2029,19 +2059,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G58" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2049,22 +2079,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G59" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2072,19 +2102,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2092,19 +2122,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D61" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G61" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2112,19 +2142,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2132,19 +2162,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G63" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2152,16 +2182,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2169,16 +2199,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2186,13 +2216,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2200,13 +2230,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2214,13 +2244,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2228,13 +2258,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2242,13 +2272,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2256,13 +2286,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2270,13 +2300,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2284,13 +2314,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2298,13 +2328,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2312,13 +2342,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2326,13 +2356,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2340,13 +2370,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2354,13 +2384,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E78" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2368,7 +2398,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2376,13 +2406,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2390,13 +2420,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2404,13 +2434,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2418,13 +2448,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2432,13 +2462,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E84" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="171">
   <si>
     <t>Capability</t>
   </si>
@@ -295,7 +295,7 @@
     <t>EB_Quartlery_5_Year_Budget_Planning</t>
   </si>
   <si>
-    <t>Privacy_Impact_Assessment_-_Pia,Maintenance Of Register Ofing Activities (Ropa),EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake,ROPA_Reporting,User_Term_Changes</t>
+    <t>Privacy_Impact_Assessment_-_Pia,Maintenance_Of_Register_Ofing_Activities_-_Ropa,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake,ROPA_Reporting,User_Term_Changes</t>
   </si>
   <si>
     <t>NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin</t>
@@ -307,10 +307,10 @@
     <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement - Partner Nomination (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation - Grid Connection &amp; Upgrade (If Applicable),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
-  </si>
-  <si>
-    <t>MSRP_Pricing_SOP,User Behavior Tracking System (UBTS),Market_Intelligence_Europe</t>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
+  </si>
+  <si>
+    <t>MSRP_Pricing_SOP,User_Behavior_Tracking_System_-_UBTS,Market_Intelligence_Europe</t>
   </si>
   <si>
     <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation</t>
@@ -331,7 +331,7 @@
     <t>Financing,Settlement_Management,NSC_Settlement_Management,ASC_Settlement_Management,RDC_Settlement_Management,Supplier_Settlement_Management,Collection_Management</t>
   </si>
   <si>
-    <t>EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,EB_User_Development - Communication &amp; Events - Product go-to-market communication(in progress),EB_User_Development - Communication &amp; Events - NIO Summer (in progress)</t>
+    <t>EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Product_go-to-market_communication,EB_User_Development_-_Communication_&amp;_Events_-_NIO_Summer</t>
   </si>
   <si>
     <t>EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>
@@ -349,16 +349,13 @@
     <t>EB_User_Operation_-_Partner_Strategy,EB_User_Operation_-_Partner_Strategy_-_Identification_&amp;_evaluation,EB_User_Operation_-_Partner_Strategy_-_Partnering_initiation,EB_User_Operation_-_Partner_Strategy_-_Partnership_negotiation,EB_User_Operation_-_Partner_Strategy_-_Signing,EB_User_Operation_-_Partner_Strategy_-_Execution,EB_User_Operation_-_Partner_Strategy_-_Dissolution</t>
   </si>
   <si>
-    <t>User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO - Recycling Batteries And Cars (In Progress),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Battery Charging or Super Chargers(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Swap Station(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE - Power Charging(Issues),User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting,User_Satisfaction_-_Service_Coordinator_-_Globales - NIO_App(In Progress),User Satisfaction - Service_Coordinator - SCR Template Name(In Progress),User Satisfaction - Service_Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR</t>
+    <t>User_Satisfaction_-_Service_Coordinator_-_Globales,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_User_Om_Way_Of_Working,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Returning_Car_&amp;_Power_Accessories,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Aftersales_SO_-_Recycling_Batteries_And_Cars,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_Return_NIO_Life_Products,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Life_-_NIO_Life,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Sales_UO,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Redemption,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Point_Missing,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Points_-_NIO_Points_Distribution,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Monitoring,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Battery_Charging_or_Super_Chargers,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Charging_Map,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Deleting_Charging_&amp;_Battery_Swap_Order,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Home_Charger_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Swap_Station,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Power_Charging,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_Power_PE_-_Nfc_Card_Activation,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Autonomous_Drivinig_Issues,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Hvdi_Emergency_Fault_Response,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Sota&amp;FOTA_Update_Failed,User_Satisfaction_-_Service_Coordinator_-_Globales_-_Vehicle_-_Vehicle_Trouble_Shooting,User_Satisfaction_-_Service_Coordinator_-_Globales_-_NIO_App,User_Satisfaction_-_Service_Coordinator_-_SCR_Template_Name,User_Satisfaction_-_Service_Coordinator_-_E2E_SCR_UR_Expert,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Knowledge_Library,User_Satisfaction_-_Service_Coordinator_-_Globales_-_General_-_Tagging_SCR</t>
   </si>
   <si>
     <t>User_Satisfaction_-_User_Relations_Management,User_Satisfaction_-_User_Relations_Management_-_NIO_Points,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_NIO_Points_User_Manual,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_Scenarios_&amp;_Standards_&amp;_Referral_Rules,User_Satisfaction_-_User_Relations_Management_-_NIO_Points_-_Points_and_Coupon_Instruction,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_5-Star_Scenario_&amp;_Schedule,User_Satisfaction_-_User_Relations_Management_-_5-Star_Rating_-_Low-Star_Follow_Up_SOP,User_Satisfaction_-_User_Relations_Management_-_Ucls,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_Users_Meet_Developers,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_User_Navigator,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_UAB,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_Community_Account,User_Satisfaction_-_User_Relations_Management_-_User_Commmunity_-_User_F2F,User_Satisfaction_-_User_Relations_Management_-_User_Response_-_Daily_Low_Star_Response,User_Satisfaction_-_User_Relations_Management_-_User_Response_-_User_Response_Library_Usage_SOP,User_Satisfaction_-_User_Relations_Management_-_Weekly_Report_-_EU_UR_Shared_Event_Calendar,User_Satisfaction_-_User_Relations_Management_-_Weekly_Report_-_NIO_App_User_Feedback</t>
   </si>
   <si>
     <t>Sales_Planning,Sales_Planning_-_Sales_Planning,Sales_Planning_-_Supply_Planning,Sales_Planning_-_Fleet_Planning,Sales_Planning_-_Supply_Planning_-_Offering_Structure,Sales_Planning_-_Supply_Planning_-_Planning_To_Production,Sales_Planning_-_Supply_Planning_-_Allocation_&amp;_Re-Allocation,Sales_Planning_-_Sales_Planning_-_Sales_Performance_Rolling_Plan,Sales_Planning_-_Sales_Planning_-_Target_Steering,Sales_Planning_-_Fleet_Planning_-_Stock_Level_Monitor_&amp;_Stock_Age_Forecast_Model,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_In-Fleet_Plan,Sales_Planning_-_Fleet_Planning_-_Subscription_Fleet_Plan_&amp;_Monitor_-_De-Fleet_Plan</t>
-  </si>
-  <si>
-    <t>Long_Term_Volume_Planning,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA</t>
   </si>
   <si>
     <t>Service_Network_-_RDC_Planning,Service_Network_-_ASC_and_ASC_Lite_Planning,Service_Network_-_Body_Repair_Shop_Planning,Service_Network_-_NSC_and_Hub_Planning</t>
@@ -887,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -933,10 +930,10 @@
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -953,10 +950,10 @@
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -973,10 +970,10 @@
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -993,10 +990,10 @@
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1013,10 +1010,10 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1033,10 +1030,10 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1056,10 +1053,10 @@
         <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1076,10 +1073,10 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1096,10 +1093,10 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1116,7 +1113,7 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1133,10 +1130,10 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1153,10 +1150,10 @@
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1173,10 +1170,10 @@
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1193,10 +1190,10 @@
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1213,10 +1210,10 @@
         <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1233,10 +1230,10 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1253,10 +1250,10 @@
         <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1273,7 +1270,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1290,10 +1287,10 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1310,10 +1307,10 @@
         <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1333,10 +1330,10 @@
         <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1353,10 +1350,10 @@
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1376,10 +1373,10 @@
         <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1399,10 +1396,10 @@
         <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1419,10 +1416,10 @@
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1439,10 +1436,10 @@
         <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1462,10 +1459,10 @@
         <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1485,10 +1482,10 @@
         <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1508,10 +1505,10 @@
         <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1531,10 +1528,10 @@
         <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1551,10 +1548,10 @@
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1588,10 +1585,10 @@
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1611,10 +1608,10 @@
         <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1631,7 +1628,7 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1648,10 +1645,10 @@
         <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1668,10 +1665,10 @@
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1688,7 +1685,7 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1705,7 +1702,7 @@
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1722,7 +1719,7 @@
         <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1739,7 +1736,7 @@
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1756,7 +1753,7 @@
         <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1776,10 +1773,10 @@
         <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1796,10 +1793,10 @@
         <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1816,10 +1813,10 @@
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1839,10 +1836,10 @@
         <v>103</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1862,10 +1859,10 @@
         <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1882,7 +1879,7 @@
         <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1899,10 +1896,10 @@
         <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1919,10 +1916,10 @@
         <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1939,10 +1936,10 @@
         <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1962,10 +1959,10 @@
         <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1985,10 +1982,10 @@
         <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2008,10 +2005,10 @@
         <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2031,7 +2028,7 @@
         <v>108</v>
       </c>
       <c r="G56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2048,10 +2045,10 @@
         <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2068,10 +2065,10 @@
         <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2091,10 +2088,10 @@
         <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2114,7 +2111,7 @@
         <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2134,7 +2131,7 @@
         <v>111</v>
       </c>
       <c r="G61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2154,7 +2151,7 @@
         <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2174,7 +2171,7 @@
         <v>113</v>
       </c>
       <c r="G63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2191,7 +2188,7 @@
         <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2208,7 +2205,7 @@
         <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2216,7 +2213,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
         <v>89</v>
@@ -2230,7 +2227,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
         <v>89</v>
@@ -2244,7 +2241,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
         <v>89</v>
@@ -2258,7 +2255,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
         <v>89</v>
@@ -2272,7 +2269,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
         <v>89</v>
@@ -2286,7 +2283,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
         <v>89</v>
@@ -2300,7 +2297,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
         <v>89</v>
@@ -2314,7 +2311,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
         <v>89</v>
@@ -2328,7 +2325,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
@@ -2342,7 +2339,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
         <v>89</v>
@@ -2356,7 +2353,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
         <v>89</v>
@@ -2370,7 +2367,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
         <v>89</v>
@@ -2383,22 +2380,22 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>83</v>
-      </c>
       <c r="C78" t="s">
         <v>89</v>
-      </c>
-      <c r="E78" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
+      <c r="B79" t="s">
+        <v>84</v>
+      </c>
       <c r="C79" t="s">
         <v>89</v>
+      </c>
+      <c r="E79" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2406,7 +2403,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
         <v>89</v>
@@ -2420,7 +2417,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
         <v>89</v>
@@ -2434,7 +2431,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2448,27 +2445,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
         <v>89</v>
       </c>
       <c r="E83" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" t="s">
-        <v>89</v>
-      </c>
-      <c r="E84" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -301,22 +301,22 @@
     <t>NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin</t>
   </si>
   <si>
-    <t>Power_EU_Operation_-_VOC_War_Room</t>
-  </si>
-  <si>
-    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool</t>
-  </si>
-  <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval</t>
-  </si>
-  <si>
-    <t>MSRP_Pricing_SOP,User_Behavior_Tracking_System_-_UBTS,Market_Intelligence_Europe</t>
+    <t>Power_EU_Operation_-_VOC_War_Room,EU_Power_VOC_War_Room</t>
+  </si>
+  <si>
+    <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool,EU_Power_Procurement_&amp;_Finance_Overview,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,EU_Power_Supply_Chain_-_Order_to_Delivery</t>
+  </si>
+  <si>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process</t>
+  </si>
+  <si>
+    <t>COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe</t>
   </si>
   <si>
     <t>COE_Product_Design_-_Europe_Product_Experience_-_User_Closed-Loop,COE_Product_Design_-_Europe_Product_Experience_-_Sud_Experience_Confirmation</t>
   </si>
   <si>
-    <t>Long_Term_Volume_Planning,Competitor_Definition,Pre_MP_And_Launch_Stock_Ordering,Pricing,Option_Offer,Product_Briefing,GTM_Cadence,GTM_Milestone_Adjustment,OTA,COE_Product_Design_-_Product_Marketing_Department_-_PMK_-_Digital_GTM_EU</t>
+    <t>COE_Product_Design_-_PMK_EU_-_Long_Term_Volume_Planning_Process,Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pre_MP_And_Launch_Stock_Ordering,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment,OTA,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process</t>
   </si>
   <si>
     <t>Complete_Purchasing_Process</t>
@@ -340,7 +340,7 @@
     <t>Fleet_And_Business_Direct_Sales_-_Without_Partner,Bulk_Deal_Offer_Approval,Fleet_And_Business_Direct_Sales_-_With_Partner,Fleet_And_Business_Weekly_Governance_And_Reporting</t>
   </si>
   <si>
-    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car,Fellow_Complete_Testdrive,Fellow_Handles_A_Testdrive</t>
+    <t>User_Experiences_Normal_Testdrive,User_Returns_A_Purchase_Car</t>
   </si>
   <si>
     <t>Create_A_New_Promotion,Subscription_Pricing_Definition,Subscripiton_Dynamic_Pricing_&amp;_Seasonal_Discount,Ancillary_Fees,Commercial_Condition_For_Special_Deals,Commercial_Condition_Policies,Trade_ins,RV_Study</t>
@@ -379,7 +379,7 @@
     <t>Spare_Parts_Planning_&amp;_Operation_-_New_Project_Parts_Readiness,Spare_Parts_Planning_&amp;_Operation_-_Low_Star_Management,Spare_Parts_Planning_&amp;_Operation,Spare_Parts_Planning_&amp;_Operation_-_Parts_Masterdata,Spare_Parts_Planning_&amp;_Operation_-_Parts_Price,Spare_Parts_Planning_&amp;_Operation_-_Parts_Scrap,Spare_Parts_Planning_&amp;_Operation_-_Parts_Inventory,Spare_Parts_Planning_&amp;_Operation_-_Parts_Planning_And_Order_Operation,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Supplier,Spare_Parts_Planning_&amp;_Operation_-_Logistics_-_Logistics,Spare_Parts_Planning_&amp;_Operation_-_Claim_Management,Spare_Parts_Planning_&amp;_Operation_-_Special_Tools_Order</t>
   </si>
   <si>
-    <t>Accessory_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_DevelopmentAfter-Sales_Accessory-No-Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price</t>
+    <t>Accessory_Planning_&amp;_Operation,Accessory_Planning_&amp;_Operation_-_Accessory_Development_-_After_Sales_Accessory_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Development_After-Sales_Accessory_-_No_-_Vehicle,Accessory_Planning_&amp;_Operation_-_Accessory_Order_-Local_Sourcing_Export,Accessory_Planning_&amp;_Operation_-_Accessory_Logistics,Accessory_Planning_&amp;_Operation_-_Online_Product_Set_Up,Accessory_Planning_&amp;_Operation_-_Order_Follow_Up,Accessory_Planning_&amp;_Operation_-_Accessory_Price</t>
   </si>
   <si>
     <t>Emergency_Response_-_EU_Emergency_Response</t>
@@ -391,10 +391,10 @@
     <t>Service_Campaign_-_Service_Campaign_Release_And_Operation</t>
   </si>
   <si>
-    <t>Technical_Training_-_Technical_Training_Management,Technical_Training</t>
-  </si>
-  <si>
-    <t>Fleet_Management,Fleet_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Using</t>
+    <t>Technical_Training_-_Technical_Training_Management</t>
+  </si>
+  <si>
+    <t>Fleet_Operation,Fleet_Operation_-_Infleeting_Operation_Management,Fleet_Operation_-_Delivery_Management,Fleet_Operation_-_Vehicle_Using_Management_-_Violation_Ticket_Management,Fleet_Operation_-_Return_Management,Fleet_Planning_&amp;_Internal_Car_Management,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Application,Fleet_Planning_&amp;_Internal_Car_Management_-_Internal_Car_Using</t>
   </si>
   <si>
     <t>Quality,Quality_Issue_Management,EU_Quality_Issue_Management</t>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="170">
   <si>
     <t>Capability</t>
   </si>
@@ -292,22 +292,19 @@
     <t>Achieve_Satisfaction_Target</t>
   </si>
   <si>
-    <t>EB_Quartlery_5_Year_Budget_Planning</t>
-  </si>
-  <si>
     <t>Privacy_Impact_Assessment_-_Pia,Maintenance_Of_Register_Ofing_Activities_-_Ropa,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake,ROPA_Reporting,User_Term_Changes</t>
   </si>
   <si>
     <t>NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin</t>
   </si>
   <si>
-    <t>Power_EU_Operation_-_VOC_War_Room,EU_Power_VOC_War_Room</t>
+    <t>EU_Power_VOC_War_Room</t>
   </si>
   <si>
     <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool,EU_Power_Procurement_&amp;_Finance_Overview,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,EU_Power_Supply_Chain_-_Order_to_Delivery</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process</t>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
   </si>
   <si>
     <t>COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe</t>
@@ -930,10 +927,10 @@
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -950,10 +947,10 @@
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -970,10 +967,10 @@
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -990,10 +987,10 @@
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1010,10 +1007,10 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1030,10 +1027,10 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1049,14 +1046,11 @@
       <c r="D8" t="s">
         <v>90</v>
       </c>
-      <c r="E8" t="s">
-        <v>92</v>
-      </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1073,10 +1067,10 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1093,10 +1087,10 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1113,7 +1107,7 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1130,10 +1124,10 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1150,10 +1144,10 @@
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1170,10 +1164,10 @@
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1190,10 +1184,10 @@
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1210,10 +1204,10 @@
         <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1230,10 +1224,10 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1250,10 +1244,10 @@
         <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1270,7 +1264,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,10 +1281,10 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1307,10 +1301,10 @@
         <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1327,13 +1321,13 @@
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1350,10 +1344,10 @@
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1370,13 +1364,13 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1393,13 +1387,13 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1416,10 +1410,10 @@
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1436,10 +1430,10 @@
         <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1456,13 +1450,13 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1479,13 +1473,13 @@
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1502,13 +1496,13 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1525,13 +1519,13 @@
         <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1548,10 +1542,10 @@
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1568,7 +1562,7 @@
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1585,10 +1579,10 @@
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1605,13 +1599,13 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1628,7 +1622,7 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1645,10 +1639,10 @@
         <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1665,10 +1659,10 @@
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1685,7 +1679,7 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1702,7 +1696,7 @@
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1719,7 +1713,7 @@
         <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1736,7 +1730,7 @@
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1753,7 +1747,7 @@
         <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1770,13 +1764,13 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1793,10 +1787,10 @@
         <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1813,10 +1807,10 @@
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1833,13 +1827,13 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1856,13 +1850,13 @@
         <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1879,7 +1873,7 @@
         <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1896,10 +1890,10 @@
         <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1916,10 +1910,10 @@
         <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1936,10 +1930,10 @@
         <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1956,13 +1950,13 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1979,13 +1973,13 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2002,13 +1996,13 @@
         <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2025,10 +2019,10 @@
         <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2045,10 +2039,10 @@
         <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2065,10 +2059,10 @@
         <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2085,13 +2079,13 @@
         <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2108,10 +2102,10 @@
         <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2128,10 +2122,10 @@
         <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2148,10 +2142,10 @@
         <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2168,10 +2162,10 @@
         <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2188,7 +2182,7 @@
         <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2205,7 +2199,7 @@
         <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2219,7 +2213,7 @@
         <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2233,7 +2227,7 @@
         <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2247,7 +2241,7 @@
         <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2261,7 +2255,7 @@
         <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2275,7 +2269,7 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2289,7 +2283,7 @@
         <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2303,7 +2297,7 @@
         <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2317,7 +2311,7 @@
         <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2331,7 +2325,7 @@
         <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2345,7 +2339,7 @@
         <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2359,7 +2353,7 @@
         <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2373,7 +2367,7 @@
         <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2395,7 +2389,7 @@
         <v>89</v>
       </c>
       <c r="E79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2409,7 +2403,7 @@
         <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2423,7 +2417,7 @@
         <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2437,7 +2431,7 @@
         <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2451,7 +2445,7 @@
         <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="171">
   <si>
     <t>Capability</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Achieve_Satisfaction_Target</t>
+  </si>
+  <si>
+    <t>Internal_Referral_Process</t>
   </si>
   <si>
     <t>Privacy_Impact_Assessment_-_Pia,Maintenance_Of_Register_Ofing_Activities_-_Ropa,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake,ROPA_Reporting,User_Term_Changes</t>
@@ -927,10 +930,10 @@
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -947,10 +950,10 @@
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -967,10 +970,10 @@
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -987,10 +990,10 @@
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1007,10 +1010,10 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1027,10 +1030,10 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1047,10 +1050,10 @@
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1067,10 +1070,10 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1087,10 +1090,10 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1107,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1124,10 +1127,10 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1144,10 +1147,10 @@
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1164,10 +1167,10 @@
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1184,10 +1187,10 @@
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1203,11 +1206,14 @@
       <c r="D16" t="s">
         <v>90</v>
       </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1224,10 +1230,10 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1244,10 +1250,10 @@
         <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1264,7 +1270,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1281,10 +1287,10 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1301,10 +1307,10 @@
         <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1321,13 +1327,13 @@
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1344,10 +1350,10 @@
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1364,13 +1370,13 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1387,13 +1393,13 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1410,10 +1416,10 @@
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1430,10 +1436,10 @@
         <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1450,13 +1456,13 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1473,13 +1479,13 @@
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1496,13 +1502,13 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1519,13 +1525,13 @@
         <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1542,10 +1548,10 @@
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1562,7 +1568,7 @@
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1579,10 +1585,10 @@
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1599,13 +1605,13 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1622,7 +1628,7 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1639,10 +1645,10 @@
         <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1659,10 +1665,10 @@
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1679,7 +1685,7 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1696,7 +1702,7 @@
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1713,7 +1719,7 @@
         <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1730,7 +1736,7 @@
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1747,7 +1753,7 @@
         <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1764,13 +1770,13 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1787,10 +1793,10 @@
         <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1807,10 +1813,10 @@
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1827,13 +1833,13 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1850,13 +1856,13 @@
         <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1873,7 +1879,7 @@
         <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1890,10 +1896,10 @@
         <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1910,10 +1916,10 @@
         <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1930,10 +1936,10 @@
         <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1950,13 +1956,13 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1973,13 +1979,13 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1996,13 +2002,13 @@
         <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2019,10 +2025,10 @@
         <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2039,10 +2045,10 @@
         <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2059,10 +2065,10 @@
         <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2079,13 +2085,13 @@
         <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2102,10 +2108,10 @@
         <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2122,10 +2128,10 @@
         <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2142,10 +2148,10 @@
         <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2162,10 +2168,10 @@
         <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2182,7 +2188,7 @@
         <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2199,7 +2205,7 @@
         <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2213,7 +2219,7 @@
         <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2227,7 +2233,7 @@
         <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2241,7 +2247,7 @@
         <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2255,7 +2261,7 @@
         <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2269,7 +2275,7 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2283,7 +2289,7 @@
         <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2297,7 +2303,7 @@
         <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2311,7 +2317,7 @@
         <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2325,7 +2331,7 @@
         <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2339,7 +2345,7 @@
         <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2353,7 +2359,7 @@
         <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2367,7 +2373,7 @@
         <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2389,7 +2395,7 @@
         <v>89</v>
       </c>
       <c r="E79" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2403,7 +2409,7 @@
         <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2417,7 +2423,7 @@
         <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2431,7 +2437,7 @@
         <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2445,7 +2451,7 @@
         <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -319,7 +319,7 @@
     <t>COE_Product_Design_-_PMK_EU_-_Long_Term_Volume_Planning_Process,Competitor_Definition,COE_Product_Design_-_PMK_EU_-_Pre_MP_And_Launch_Stock_Ordering,COE_Product_Design_-_PMK_EU_-_Pricing,COE_Product_Design_-_PMK_EU_-_Option_Offer,COE_Product_Design_-_PMK_EU_-_Product_Briefing,COE_Product_Design_-_PMK_EU_-_GTM_Cadence,COE_Product_Design_-_PMK_EU_-_GTM_Milestone_Adjustment,OTA,COE_Product_Design_-_PMK_EU-_Digital_GTM_Process</t>
   </si>
   <si>
-    <t>Complete_Purchasing_Process</t>
+    <t>Complete_Purchasing_Process,Standard_Selection,Fast_Sourcing,Orientational_Selection,Single_Sourced_Selection,Urgent_Sourcing,End-to-End_Partner_Management</t>
   </si>
   <si>
     <t>Europe_Market_Planning_-_5_Yrs_Planning,Europe_Market_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_5_Yrs_Sales_Volume_Planning,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Future_Portfolio_Mapping,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Business_Model,Europe_Market_Planning_-_5_Yrs_Planning_-_Market_Expansion_5_Yrs_Assumptions_-_Market_Entry_Cadence_&amp;_Infrasturcutre,Europe_Market_Planning_-_Wave2_Market_Entry_PMO,Europe_Market_Planning_-_Governance_PMO,Europe_Market_Planning_-_Governance_PMO_-_Entity_Setup,5Yr_Planning_Flow</t>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="173">
   <si>
     <t>Capability</t>
   </si>
@@ -292,10 +292,13 @@
     <t>Achieve_Satisfaction_Target</t>
   </si>
   <si>
+    <t>COE_Digital_-_Digital_development_PMO_-_Online_Issue_of_Bugs,COE_Digital_-_Digital_development_PMO_-_Present_New_Business_Requirements,COE_Digital_-_Digital_development_PMO_-_Q&amp;A</t>
+  </si>
+  <si>
     <t>Internal_Referral_Process</t>
   </si>
   <si>
-    <t>Privacy_Impact_Assessment_-_Pia,Maintenance_Of_Register_Ofing_Activities_-_Ropa,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake,ROPA_Reporting,User_Term_Changes</t>
+    <t>Privacy_Impact_Assessment_-_Pia,Maintenance_Of_Register_Ofing_Activities_-_Ropa,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,EU_Legal_-_Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake,ROPA_Reporting,User_Term_Changes</t>
   </si>
   <si>
     <t>NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin</t>
@@ -329,6 +332,9 @@
   </si>
   <si>
     <t>Financing,Settlement_Management,NSC_Settlement_Management,ASC_Settlement_Management,RDC_Settlement_Management,Supplier_Settlement_Management,Collection_Management</t>
+  </si>
+  <si>
+    <t>EPX_-_Construction_-_Construction_Management_Standard_Process</t>
   </si>
   <si>
     <t>EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Product_go-to-market_communication,EB_User_Development_-_Communication_&amp;_Events_-_NIO_Summer</t>
@@ -930,10 +936,10 @@
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -950,10 +956,10 @@
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -969,11 +975,14 @@
       <c r="D4" t="s">
         <v>90</v>
       </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -990,10 +999,10 @@
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1010,10 +1019,10 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1030,10 +1039,10 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1050,10 +1059,10 @@
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1070,10 +1079,10 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1090,10 +1099,10 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1110,7 +1119,7 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1127,10 +1136,10 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1147,10 +1156,10 @@
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1167,10 +1176,10 @@
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1187,10 +1196,10 @@
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1207,13 +1216,13 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1230,10 +1239,10 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1250,10 +1259,10 @@
         <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1270,7 +1279,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,10 +1296,10 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1307,10 +1316,10 @@
         <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1327,13 +1336,13 @@
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1350,10 +1359,10 @@
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1370,13 +1379,13 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1393,13 +1402,13 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1416,10 +1425,10 @@
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1436,10 +1445,10 @@
         <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1456,13 +1465,13 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1479,13 +1488,13 @@
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1502,13 +1511,13 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1525,13 +1534,13 @@
         <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1548,10 +1557,10 @@
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1568,7 +1577,7 @@
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1585,10 +1594,10 @@
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1605,13 +1614,13 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1628,7 +1637,7 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1645,10 +1654,10 @@
         <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1665,10 +1674,10 @@
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G38" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1685,7 +1694,7 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1702,7 +1711,7 @@
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1719,7 +1728,7 @@
         <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1736,7 +1745,7 @@
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1753,7 +1762,7 @@
         <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1770,13 +1779,13 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1793,10 +1802,10 @@
         <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G45" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1813,10 +1822,10 @@
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1833,13 +1842,13 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1856,13 +1865,13 @@
         <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G48" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1879,7 +1888,7 @@
         <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1896,10 +1905,10 @@
         <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G50" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1915,11 +1924,14 @@
       <c r="D51" t="s">
         <v>91</v>
       </c>
+      <c r="E51" t="s">
+        <v>106</v>
+      </c>
       <c r="F51" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1936,10 +1948,10 @@
         <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1956,13 +1968,13 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G53" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1979,13 +1991,13 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2002,13 +2014,13 @@
         <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G55" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2025,10 +2037,10 @@
         <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2045,10 +2057,10 @@
         <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G57" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2065,10 +2077,10 @@
         <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G58" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2085,13 +2097,13 @@
         <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2108,10 +2120,10 @@
         <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2128,10 +2140,10 @@
         <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2148,10 +2160,10 @@
         <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2168,10 +2180,10 @@
         <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2188,7 +2200,7 @@
         <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2205,7 +2217,7 @@
         <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2219,7 +2231,7 @@
         <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2233,7 +2245,7 @@
         <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2247,7 +2259,7 @@
         <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2261,7 +2273,7 @@
         <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2275,7 +2287,7 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2289,7 +2301,7 @@
         <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2303,7 +2315,7 @@
         <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2317,7 +2329,7 @@
         <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2331,7 +2343,7 @@
         <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2345,7 +2357,7 @@
         <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2359,7 +2371,7 @@
         <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2373,7 +2385,7 @@
         <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2395,7 +2407,7 @@
         <v>89</v>
       </c>
       <c r="E79" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2409,7 +2421,7 @@
         <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2423,7 +2435,7 @@
         <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2437,7 +2449,7 @@
         <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2451,7 +2463,7 @@
         <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -337,7 +337,7 @@
     <t>EPX_-_Construction_-_Construction_Management_Standard_Process</t>
   </si>
   <si>
-    <t>EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Product_go-to-market_communication,EB_User_Development_-_Communication_&amp;_Events_-_NIO_Summer</t>
+    <t>EB_User_Development_-_Communication_&amp;_Events_-_NIO_House_Launch_Event_&amp;_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Power_Swap_Station_Opening_Communication,EB_User_Development_-_Communication_&amp;_Events_-_Product_go-to-market_communication,EB_User_Development_-_Communication_&amp;_Events_-_NIO_Summer,EB_User_Development_-_Communication_&amp;_Events_-_Tech_Talk,EB_User_Development_-_Communication_&amp;_Events_-_Seeds</t>
   </si>
   <si>
     <t>EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Public_Activities,EB_User_Development_-_PR_-_NIO_Global_Spokesperson_Rules_-_Media_Interview</t>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="174">
   <si>
     <t>Capability</t>
   </si>
@@ -298,6 +298,9 @@
     <t>Internal_Referral_Process</t>
   </si>
   <si>
+    <t>EU_standard_offboarding_process,EU_standard_onboarding_process,EU_standard_probation_process</t>
+  </si>
+  <si>
     <t>Privacy_Impact_Assessment_-_Pia,Maintenance_Of_Register_Ofing_Activities_-_Ropa,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,EU_Legal_-_Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake,ROPA_Reporting,User_Term_Changes</t>
   </si>
   <si>
@@ -310,7 +313,7 @@
     <t>Power_Procurement,Power_Procurement_-_Standard,Power_Procurement_-_Authorized,Power_EU_Supply_Chain_Planning_&amp;_Forecast,Power_EU_Supply_Chain_Order_To_Delivery,Power_EU_Supply_Chain_Order_To_Delivery_-_PSS_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Batteries_Direct_To_Site,Power_EU_Supply_Chain_Order_To_Delivery_-_Internal_Use,Power_EU_Supply_Chain_Order_To_Delivery_-_User_Orders_Via_NIO_App,Power_EU_Supply_Chain_Order_To_Delivery_-_Free_Offer_With_Car_Pool,EU_Power_Procurement_&amp;_Finance_Overview,EU_Power_Supply_Chain_-_Planning_&amp;_Forecast,EU_Power_Supply_Chain_-_Order_to_Delivery</t>
   </si>
   <si>
-    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
+    <t>Power_EU_PUS_Leads_To_Operation_Q-300-B-1_EU_PUS_Lto,Power_EU_PUS_Leads_To_Operation_-_EU_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_Country_Annual_Planning_And_Budget_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Leads_Collection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Site_Inspection,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Quotation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Project_Approval,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Leads_To_Contract_-_Contracting,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Kick_off,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Announcement_-_Partner_Nomination,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Construction_Permit,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Grid_Connection_&amp;_Upgrade,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Civil_Construction,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Device_Installation,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Installation_&amp;_Commissioning_-_Installation_&amp;_Commissioning,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_PUS_Ready_For_Service,Power_EU_PUS_Leads_To_Operation_-_LTO_-_Contract_To_Operation_-_Launch,Power_EU_PUS_Leads_To_Operation_-_Power_EU_PUS_Step_By_Step,Power_EU_PUS_Leads_To_Operation_-_PUS_Operation_Approval,Leads_to_Operation_-_Q-300-B-1_EU_PUS_LTO,Bi_-_Weekly_Project_Approval_Process,PUS_Operation_Approval_Process_-_OPA,PUS_Operation_Approval_Process_-_PUS_checklist_preparation_&amp;_readiness ,PUS_Operation_Approval_Process_-_PUS_launch_final_approval,PUS_Operation_Approval_Process_-_Approvals_&amp;_next_steps</t>
   </si>
   <si>
     <t>COE_Product_Design_-_PMK_EU_-_MSRP_Pricing_SOP,COE_Product_Design_-_PMK_EU_-_User_Behavior_Tracking_System_-_UBTS,COE_Product_Design_-_PMK_EU_-_Market_Intelligence_Europe</t>
@@ -936,10 +939,10 @@
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -956,10 +959,10 @@
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -979,10 +982,10 @@
         <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -999,10 +1002,10 @@
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1019,10 +1022,10 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1039,10 +1042,10 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1059,10 +1062,10 @@
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1079,10 +1082,10 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1099,10 +1102,10 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1119,7 +1122,7 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1136,10 +1139,10 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1156,10 +1159,10 @@
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1176,10 +1179,10 @@
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1196,10 +1199,10 @@
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1219,10 +1222,10 @@
         <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1239,10 +1242,10 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1259,10 +1262,10 @@
         <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1279,7 +1282,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1296,10 +1299,10 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1315,11 +1318,14 @@
       <c r="D21" t="s">
         <v>90</v>
       </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1336,13 +1342,13 @@
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1359,10 +1365,10 @@
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1379,13 +1385,13 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1402,13 +1408,13 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1425,10 +1431,10 @@
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1445,10 +1451,10 @@
         <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1465,13 +1471,13 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1488,13 +1494,13 @@
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1511,13 +1517,13 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1534,13 +1540,13 @@
         <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1557,10 +1563,10 @@
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1577,7 +1583,7 @@
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1594,10 +1600,10 @@
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1614,13 +1620,13 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1637,7 +1643,7 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1654,10 +1660,10 @@
         <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1674,10 +1680,10 @@
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1694,7 +1700,7 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1711,7 +1717,7 @@
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1728,7 +1734,7 @@
         <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1745,7 +1751,7 @@
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1762,7 +1768,7 @@
         <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1779,13 +1785,13 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1802,10 +1808,10 @@
         <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1822,10 +1828,10 @@
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1842,13 +1848,13 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1865,13 +1871,13 @@
         <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1888,7 +1894,7 @@
         <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1905,10 +1911,10 @@
         <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1925,13 +1931,13 @@
         <v>91</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1948,10 +1954,10 @@
         <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1968,13 +1974,13 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1991,13 +1997,13 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2014,13 +2020,13 @@
         <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2037,10 +2043,10 @@
         <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2057,10 +2063,10 @@
         <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2077,10 +2083,10 @@
         <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2097,13 +2103,13 @@
         <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2120,10 +2126,10 @@
         <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2140,10 +2146,10 @@
         <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2160,10 +2166,10 @@
         <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2180,10 +2186,10 @@
         <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2200,7 +2206,7 @@
         <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2217,7 +2223,7 @@
         <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2231,7 +2237,7 @@
         <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2245,7 +2251,7 @@
         <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2259,7 +2265,7 @@
         <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2273,7 +2279,7 @@
         <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2287,7 +2293,7 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2301,7 +2307,7 @@
         <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2315,7 +2321,7 @@
         <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2329,7 +2335,7 @@
         <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2343,7 +2349,7 @@
         <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2357,7 +2363,7 @@
         <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2371,7 +2377,7 @@
         <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2385,7 +2391,7 @@
         <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2407,7 +2413,7 @@
         <v>89</v>
       </c>
       <c r="E79" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2421,7 +2427,7 @@
         <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2435,7 +2441,7 @@
         <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2449,7 +2455,7 @@
         <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2463,7 +2469,7 @@
         <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/w_after replace  Capability.xlsx
+++ b/w_after replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="175">
   <si>
     <t>Capability</t>
   </si>
@@ -295,13 +295,16 @@
     <t>COE_Digital_-_Digital_development_PMO_-_Online_Issue_of_Bugs,COE_Digital_-_Digital_development_PMO_-_Present_New_Business_Requirements,COE_Digital_-_Digital_development_PMO_-_Q&amp;A</t>
   </si>
   <si>
+    <t>NIO VAU Management(Target Management)</t>
+  </si>
+  <si>
     <t>Internal_Referral_Process</t>
   </si>
   <si>
     <t>EU_standard_offboarding_process,EU_standard_onboarding_process,EU_standard_probation_process</t>
   </si>
   <si>
-    <t>Privacy_Impact_Assessment_-_Pia,Maintenance_Of_Register_Ofing_Activities_-_Ropa,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,EU_Legal_-_Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,Data_Protection_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake,ROPA_Reporting,User_Term_Changes</t>
+    <t>Privacy_Impact_Assessment_-_Pia,Maintenance_Of_Register_Ofing_Activities_-_Ropa,EU_Legal_-_Data_Protection,EU_Legal_-_Data_Protection_-_Data_Protection_Risk_Management,Contract_Review,EU_Legal_-_Corporate_Changes,Creation_Or_Update_Of_Data_Deletion_And_Retention_Concept,Data_Breach_Response,EU_Legal_-_Data_Protection_-_Agreement_Review,Data_Proteciton_Risk_Management,EBE_Collection_Of_Large_2B_Transactions,General_Requests_To_Legal_Department,Mail_Intake,ROPA_Reporting,User_Term_Changes</t>
   </si>
   <si>
     <t>NIO_Life_-_Export_-_Planned_Export,NIO_Life_-_New_Store_Opening,NIO_Life_-_Replenishment,NIO_Life_-_Offline_Display,NIO_Life_-_Internal_Application,NIO_Life_-_Export_-_Export_For_Internal_Applicatioin</t>
@@ -939,10 +942,10 @@
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -959,10 +962,10 @@
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -982,10 +985,10 @@
         <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1002,10 +1005,10 @@
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1022,10 +1025,10 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1042,10 +1045,10 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1062,10 +1065,10 @@
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1082,10 +1085,10 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1102,10 +1105,10 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1122,7 +1125,7 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1139,10 +1142,10 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1159,10 +1162,10 @@
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1178,11 +1181,14 @@
       <c r="D14" t="s">
         <v>90</v>
       </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1199,10 +1205,10 @@
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1219,13 +1225,13 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1242,10 +1248,10 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1262,10 +1268,10 @@
         <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1282,7 +1288,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1299,10 +1305,10 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1319,13 +1325,13 @@
         <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1342,13 +1348,13 @@
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1365,10 +1371,10 @@
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1385,13 +1391,13 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1408,13 +1414,13 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1431,10 +1437,10 @@
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1451,10 +1457,10 @@
         <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1471,13 +1477,13 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1494,13 +1500,13 @@
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1517,13 +1523,13 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1540,13 +1546,13 @@
         <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1563,10 +1569,10 @@
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1583,7 +1589,7 @@
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1600,10 +1606,10 @@
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1620,13 +1626,13 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1643,7 +1649,7 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1660,10 +1666,10 @@
         <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1680,10 +1686,10 @@
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1700,7 +1706,7 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1717,7 +1723,7 @@
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1734,7 +1740,7 @@
         <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1751,7 +1757,7 @@
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1768,7 +1774,7 @@
         <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1785,13 +1791,13 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1808,10 +1814,10 @@
         <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1828,10 +1834,10 @@
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1848,13 +1854,13 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1871,13 +1877,13 @@
         <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1894,7 +1900,7 @@
         <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1911,10 +1917,10 @@
         <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1931,13 +1937,13 @@
         <v>91</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1954,10 +1960,10 @@
         <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1974,13 +1980,13 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1997,13 +2003,13 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2020,13 +2026,13 @@
         <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2043,10 +2049,10 @@
         <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2063,10 +2069,10 @@
         <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2083,10 +2089,10 @@
         <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2103,13 +2109,13 @@
         <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2126,10 +2132,10 @@
         <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2146,10 +2152,10 @@
         <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2166,10 +2172,10 @@
         <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2186,10 +2192,10 @@
         <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2206,7 +2212,7 @@
         <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2223,7 +2229,7 @@
         <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2237,7 +2243,7 @@
         <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2251,7 +2257,7 @@
         <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2265,7 +2271,7 @@
         <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2279,7 +2285,7 @@
         <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2293,7 +2299,7 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2307,7 +2313,7 @@
         <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2321,7 +2327,7 @@
         <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2335,7 +2341,7 @@
         <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2349,7 +2355,7 @@
         <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2363,7 +2369,7 @@
         <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2377,7 +2383,7 @@
         <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2391,7 +2397,7 @@
         <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2413,7 +2419,7 @@
         <v>89</v>
       </c>
       <c r="E79" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2427,7 +2433,7 @@
         <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2441,7 +2447,7 @@
         <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2455,7 +2461,7 @@
         <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2469,7 +2475,7 @@
         <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
